--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="commonAPI" sheetId="1" r:id="rId1"/>
@@ -9282,8 +9282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView topLeftCell="B77" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11780,8 +11780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C253" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F253" sqref="F253"/>
+    <sheetView topLeftCell="C252" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G252" sqref="G252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3109" uniqueCount="1629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3110" uniqueCount="1628">
   <si>
     <t>post</t>
   </si>
@@ -3496,11 +3496,6 @@
     <t>verify chef delete</t>
   </si>
   <si>
-    <t>{
-    "detail": "(pymysql.err.IntegrityError) (1048, \"Column 'user_id' cannot be null\")\n[SQL: UPDATE user_settings SET user_id=%(user_id)s WHERE user_settings.user_settings_id = %(user_settings_user_settings_id)s]\n[parameters: {'user_id': None, 'user_settings_user_settings_id': 6}]\n(Background on this error at: https://sqlalche.me/e/20/gkpj)"
-}</t>
-  </si>
-  <si>
     <t>https://men4u.xyz/v2/common/chef_create</t>
   </si>
   <si>
@@ -3517,13 +3512,6 @@
   </si>
   <si>
     <t>chefview</t>
-  </si>
-  <si>
-    <t>{
- "update_user_id":"2",
- "user_id":13,
- "outlet_id":1
-}</t>
   </si>
   <si>
     <t>checkversion</t>
@@ -7266,13 +7254,6 @@
     <t xml:space="preserve"> {"detail":"Aadhar number is required."}</t>
   </si>
   <si>
-    <t>{
- "update_user_id":"2",
- "user_id":"13",
- "outlet_id":"1"
-}</t>
-  </si>
-  <si>
     <t>checkversion_003</t>
   </si>
   <si>
@@ -8764,6 +8745,19 @@
   <si>
     <t>{
   "detail": "Chef updated successfully"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "detail": "Chef deleted successfully"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "update_user_id":2,
+ "user_id":14,
+ "outlet_id":1,
+ "app_source":"owner_app"
 }</t>
   </si>
 </sst>
@@ -9219,8 +9213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10621,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>541</v>
@@ -10641,13 +10635,13 @@
         <v>0</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="F75" s="1">
         <v>200</v>
@@ -10655,19 +10649,19 @@
     </row>
     <row r="76" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="F76" s="1">
         <v>200</v>
@@ -10681,19 +10675,19 @@
         <v>0</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D77" s="10" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E77" s="10" t="s">
         <v>1623</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>1626</v>
-      </c>
       <c r="F77" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>553</v>
       </c>
@@ -10701,10 +10695,13 @@
         <v>0</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>563</v>
+        <v>1627</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>1626</v>
       </c>
       <c r="F78" s="1">
         <v>200</v>
@@ -10712,19 +10709,19 @@
     </row>
     <row r="79" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>562</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="14" t="s">
+      <c r="E79" s="10" t="s">
         <v>565</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>567</v>
       </c>
       <c r="F79" s="1">
         <v>200</v>
@@ -10732,19 +10729,19 @@
     </row>
     <row r="80" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F80" s="1">
         <v>200</v>
@@ -10752,19 +10749,19 @@
     </row>
     <row r="81" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F81" s="1">
         <v>200</v>
@@ -10772,19 +10769,19 @@
     </row>
     <row r="82" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>143</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F82" s="1">
         <v>200</v>
@@ -10792,36 +10789,36 @@
     </row>
     <row r="83" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>591</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="D84" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C84" s="14" t="s">
+      <c r="E84" s="10" t="s">
         <v>594</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>596</v>
       </c>
       <c r="F84" s="1">
         <v>200</v>
@@ -10829,19 +10826,19 @@
     </row>
     <row r="85" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>551</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F85" s="1">
         <v>200</v>
@@ -10849,19 +10846,19 @@
     </row>
     <row r="86" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F86" s="1">
         <v>200</v>
@@ -10869,16 +10866,16 @@
     </row>
     <row r="87" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>611</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="D87" s="10" t="s">
         <v>613</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>614</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>615</v>
       </c>
       <c r="F87" s="1">
         <v>200</v>
@@ -10886,19 +10883,19 @@
     </row>
     <row r="88" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C88" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="E88" s="10" t="s">
         <v>621</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>623</v>
       </c>
       <c r="F88" s="1">
         <v>200</v>
@@ -10906,19 +10903,19 @@
     </row>
     <row r="89" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F89" s="1">
         <v>200</v>
@@ -10926,19 +10923,19 @@
     </row>
     <row r="90" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>628</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="D90" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" s="14" t="s">
+      <c r="E90" s="10" t="s">
         <v>631</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>633</v>
       </c>
       <c r="F90" s="1">
         <v>200</v>
@@ -10946,16 +10943,16 @@
     </row>
     <row r="91" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F91" s="1">
         <v>200</v>
@@ -10963,19 +10960,19 @@
     </row>
     <row r="92" spans="1:6" ht="345" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>643</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="D92" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C92" s="14" t="s">
+      <c r="E92" s="10" t="s">
         <v>646</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>648</v>
       </c>
       <c r="F92" s="1">
         <v>200</v>
@@ -10983,16 +10980,16 @@
     </row>
     <row r="93" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F93" s="1">
         <v>200</v>
@@ -11000,19 +10997,19 @@
     </row>
     <row r="94" spans="1:6" ht="285" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C94" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="D94" s="10" t="s">
-        <v>659</v>
-      </c>
       <c r="E94" s="10" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F94" s="1">
         <v>200</v>
@@ -11020,13 +11017,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F95" s="1">
         <v>200</v>
@@ -11034,16 +11031,16 @@
     </row>
     <row r="96" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F96" s="1">
         <v>200</v>
@@ -11051,19 +11048,19 @@
     </row>
     <row r="97" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="F97" s="1">
         <v>200</v>
@@ -11071,13 +11068,13 @@
     </row>
     <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>143</v>
@@ -11088,16 +11085,16 @@
     </row>
     <row r="99" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F99" s="1">
         <v>200</v>
@@ -11105,16 +11102,16 @@
     </row>
     <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F100" s="1">
         <v>200</v>
@@ -11122,16 +11119,16 @@
     </row>
     <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F101" s="1">
         <v>200</v>
@@ -11139,16 +11136,16 @@
     </row>
     <row r="102" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F102" s="1">
         <v>200</v>
@@ -11156,16 +11153,16 @@
     </row>
     <row r="103" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>707</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="D103" s="10" t="s">
         <v>709</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>710</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>711</v>
       </c>
       <c r="E103">
         <v>200</v>
@@ -11173,16 +11170,16 @@
     </row>
     <row r="104" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F104" s="1">
         <v>200</v>
@@ -11190,30 +11187,30 @@
     </row>
     <row r="105" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>751</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>753</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C105" s="14" t="s">
+      <c r="E105" s="10" t="s">
         <v>754</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D106" s="10" t="s">
         <v>551</v>
@@ -11224,16 +11221,16 @@
     </row>
     <row r="107" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C107" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="D107" s="10" t="s">
         <v>763</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>765</v>
       </c>
       <c r="F107">
         <v>200</v>
@@ -11241,13 +11238,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F108" s="1">
         <v>200</v>
@@ -11255,19 +11252,19 @@
     </row>
     <row r="109" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>771</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="D109" s="10" t="s">
         <v>773</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C109" s="14" t="s">
+      <c r="E109" s="10" t="s">
         <v>774</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>775</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>776</v>
       </c>
       <c r="F109">
         <v>200</v>
@@ -11275,13 +11272,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F110" s="1">
         <v>200</v>
@@ -11289,19 +11286,19 @@
     </row>
     <row r="111" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>143</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F111">
         <v>200</v>
@@ -11309,16 +11306,16 @@
     </row>
     <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C112" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="D112" s="10" t="s">
         <v>797</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>799</v>
       </c>
       <c r="F112" s="1">
         <v>200</v>
@@ -11326,13 +11323,13 @@
     </row>
     <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F113">
         <v>200</v>
@@ -11340,13 +11337,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F114" s="1">
         <v>200</v>
@@ -11354,16 +11351,16 @@
     </row>
     <row r="115" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>808</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="D115" s="10" t="s">
         <v>810</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>811</v>
-      </c>
-      <c r="D115" s="10" t="s">
-        <v>812</v>
       </c>
       <c r="F115">
         <v>200</v>
@@ -11371,16 +11368,16 @@
     </row>
     <row r="116" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F116" s="1">
         <v>200</v>
@@ -11388,16 +11385,16 @@
     </row>
     <row r="117" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>819</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="D117" s="10" t="s">
         <v>821</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C117" s="14" t="s">
-        <v>822</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>823</v>
       </c>
       <c r="F117">
         <v>200</v>
@@ -11405,16 +11402,16 @@
     </row>
     <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F118" s="1">
         <v>200</v>
@@ -11422,19 +11419,19 @@
     </row>
     <row r="119" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C119" s="18" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E119" s="10" t="s">
         <v>1545</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>1547</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>1548</v>
       </c>
       <c r="F119">
         <v>200</v>
@@ -11442,19 +11439,19 @@
     </row>
     <row r="120" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="F120" s="1">
         <v>200</v>
@@ -11462,19 +11459,19 @@
     </row>
     <row r="121" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E121" s="10" t="s">
         <v>1572</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="14" t="s">
-        <v>1573</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>1574</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>1575</v>
       </c>
       <c r="F121">
         <v>200</v>
@@ -11482,13 +11479,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="F122" s="1">
         <v>200</v>
@@ -11496,16 +11493,16 @@
     </row>
     <row r="123" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123">
@@ -11514,16 +11511,16 @@
     </row>
     <row r="124" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="F124" s="1">
         <v>200</v>
@@ -11717,8 +11714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H368"/>
   <sheetViews>
-    <sheetView topLeftCell="E243" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J245" sqref="J245"/>
+    <sheetView topLeftCell="A247" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11831,7 +11828,7 @@
         <v>80</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="H4" s="1">
         <v>400</v>
@@ -11909,7 +11906,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="H7" s="1">
         <v>404</v>
@@ -12065,7 +12062,7 @@
         <v>104</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="H13" s="8">
         <v>400</v>
@@ -12143,7 +12140,7 @@
         <v>124</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="H16" s="8">
         <v>400</v>
@@ -12195,7 +12192,7 @@
         <v>121</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="H18" s="8">
         <v>400</v>
@@ -12270,7 +12267,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>168</v>
@@ -12296,10 +12293,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="H22" s="1">
         <v>409</v>
@@ -12316,16 +12313,16 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E23" t="s">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="H23">
         <v>404</v>
@@ -12348,10 +12345,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="H24">
         <v>400</v>
@@ -12374,10 +12371,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="H25">
         <v>400</v>
@@ -12400,10 +12397,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H26">
         <v>400</v>
@@ -12426,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>172</v>
@@ -12440,22 +12437,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H28" s="1">
         <v>400</v>
@@ -12466,22 +12463,22 @@
         <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="H29" s="1">
         <v>400</v>
@@ -12492,22 +12489,22 @@
         <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="H30" s="1">
         <v>400</v>
@@ -12518,22 +12515,22 @@
         <v>65</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="H31" s="1">
         <v>400</v>
@@ -12568,22 +12565,22 @@
         <v>68</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="H33" s="8">
         <v>400</v>
@@ -12618,22 +12615,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H35" s="8">
         <v>400</v>
@@ -12653,7 +12650,7 @@
         <v>188</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>189</v>
@@ -12670,22 +12667,22 @@
         <v>186</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H37" s="8">
         <v>404</v>
@@ -12696,7 +12693,7 @@
         <v>134</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>27</v>
@@ -12705,10 +12702,10 @@
         <v>138</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>176</v>
@@ -12722,7 +12719,7 @@
         <v>134</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>26</v>
@@ -12731,7 +12728,7 @@
         <v>139</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>140</v>
@@ -12754,13 +12751,13 @@
         <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>153</v>
@@ -12786,10 +12783,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="H41" s="2">
         <v>404</v>
@@ -12806,7 +12803,7 @@
         <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>0</v>
@@ -12841,7 +12838,7 @@
         <v>147</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H43" s="2">
         <v>404</v>
@@ -12852,22 +12849,22 @@
         <v>141</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H44" s="2">
         <v>400</v>
@@ -12887,10 +12884,10 @@
         <v>161</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>162</v>
@@ -12913,10 +12910,10 @@
         <v>164</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>165</v>
@@ -12956,22 +12953,22 @@
         <v>202</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F48" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>887</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>889</v>
       </c>
       <c r="H48" s="8">
         <v>400</v>
@@ -12982,22 +12979,22 @@
         <v>202</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F49" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>888</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>890</v>
       </c>
       <c r="H49" s="8">
         <v>400</v>
@@ -13034,22 +13031,22 @@
         <v>197</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="H51" s="8">
         <v>400</v>
@@ -13086,22 +13083,22 @@
         <v>204</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H53" s="8">
         <v>404</v>
@@ -13124,10 +13121,10 @@
         <v>0</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="H54" s="2">
         <v>200</v>
@@ -13147,7 +13144,7 @@
         <v>220</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>221</v>
@@ -13176,7 +13173,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>229</v>
@@ -13187,25 +13184,25 @@
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="D57" s="8" t="s">
         <v>897</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="E57" s="8" t="s">
         <v>898</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="F57" s="9" t="s">
         <v>899</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>901</v>
-      </c>
       <c r="G57" s="9" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="H57" s="8">
         <v>400</v>
@@ -13213,25 +13210,25 @@
     </row>
     <row r="58" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>902</v>
-      </c>
-      <c r="C58" s="8" t="s">
+      <c r="D58" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>898</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>903</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>900</v>
-      </c>
       <c r="F58" s="9" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H58" s="8">
         <v>400</v>
@@ -13239,25 +13236,25 @@
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>896</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="D59" s="8" t="s">
+        <v>903</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>904</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>905</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>906</v>
-      </c>
       <c r="G59" s="9" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H59" s="8">
         <v>400</v>
@@ -13277,7 +13274,7 @@
         <v>235</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>239</v>
@@ -13294,22 +13291,22 @@
         <v>231</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H61" s="8">
         <v>400</v>
@@ -13320,22 +13317,22 @@
         <v>231</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H62" s="8">
         <v>400</v>
@@ -13346,22 +13343,22 @@
         <v>231</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H63" s="8">
         <v>400</v>
@@ -13372,22 +13369,22 @@
         <v>231</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H64" s="8">
         <v>400</v>
@@ -13398,22 +13395,22 @@
         <v>231</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H65" s="8">
         <v>400</v>
@@ -13436,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>238</v>
@@ -13450,22 +13447,22 @@
         <v>240</v>
       </c>
       <c r="B67" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="F67" s="9" t="s">
         <v>931</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>932</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>933</v>
-      </c>
       <c r="G67" s="9" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H67" s="8">
         <v>400</v>
@@ -13476,22 +13473,22 @@
         <v>240</v>
       </c>
       <c r="B68" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>933</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="F68" s="9" t="s">
         <v>934</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>935</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>936</v>
-      </c>
       <c r="G68" s="9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H68" s="8">
         <v>400</v>
@@ -13528,22 +13525,22 @@
         <v>243</v>
       </c>
       <c r="B70" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>936</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="F70" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="C70" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>938</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>939</v>
-      </c>
       <c r="G70" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H70" s="8">
         <v>400</v>
@@ -13563,7 +13560,7 @@
         <v>253</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>255</v>
@@ -13580,22 +13577,22 @@
         <v>249</v>
       </c>
       <c r="B72" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F72" s="9" t="s">
         <v>942</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>943</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>944</v>
-      </c>
       <c r="G72" s="9" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="H72" s="8">
         <v>400</v>
@@ -13606,22 +13603,22 @@
         <v>249</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>943</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>944</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F73" s="9" t="s">
         <v>945</v>
       </c>
-      <c r="C73" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>946</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>947</v>
-      </c>
       <c r="G73" s="9" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="H73" s="8">
         <v>400</v>
@@ -13706,22 +13703,22 @@
         <v>268</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C77" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>947</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>898</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>949</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>900</v>
-      </c>
       <c r="F77" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H77" s="8">
         <v>400</v>
@@ -13758,22 +13755,22 @@
         <v>273</v>
       </c>
       <c r="B79" s="8" t="s">
+        <v>948</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>949</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="F79" s="9" t="s">
         <v>950</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="D79" s="8" t="s">
+      <c r="G79" s="9" t="s">
         <v>951</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>952</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>953</v>
       </c>
       <c r="H79" s="8">
         <v>400</v>
@@ -13784,22 +13781,22 @@
         <v>273</v>
       </c>
       <c r="B80" s="8" t="s">
+        <v>952</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>954</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>955</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>956</v>
-      </c>
       <c r="G80" s="9" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H80" s="8">
         <v>400</v>
@@ -13810,22 +13807,22 @@
         <v>273</v>
       </c>
       <c r="B81" s="8" t="s">
+        <v>955</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="F81" s="9" t="s">
         <v>957</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="D81" s="8" t="s">
+      <c r="G81" s="9" t="s">
         <v>958</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>959</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>960</v>
       </c>
       <c r="H81" s="8">
         <v>400</v>
@@ -13845,10 +13842,10 @@
         <v>284</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>297</v>
@@ -13862,22 +13859,22 @@
         <v>279</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H83" s="8">
         <v>400</v>
@@ -13888,22 +13885,22 @@
         <v>279</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H84" s="8">
         <v>400</v>
@@ -13914,22 +13911,22 @@
         <v>279</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H85" s="8">
         <v>400</v>
@@ -13940,22 +13937,22 @@
         <v>279</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="H86" s="8">
         <v>400</v>
@@ -13966,22 +13963,22 @@
         <v>279</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H87" s="8">
         <v>400</v>
@@ -13992,22 +13989,22 @@
         <v>279</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H88" s="8">
         <v>400</v>
@@ -14044,22 +14041,22 @@
         <v>287</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H90" s="8">
         <v>400</v>
@@ -14070,22 +14067,22 @@
         <v>287</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H91" s="8">
         <v>400</v>
@@ -14096,22 +14093,22 @@
         <v>287</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H92" s="8">
         <v>400</v>
@@ -14122,22 +14119,22 @@
         <v>287</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H93" s="8">
         <v>400</v>
@@ -14148,22 +14145,22 @@
         <v>287</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="H94" s="8">
         <v>400</v>
@@ -14200,22 +14197,22 @@
         <v>291</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C96" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E96" s="8" t="s">
         <v>898</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>900</v>
-      </c>
       <c r="F96" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H96" s="8">
         <v>400</v>
@@ -14235,7 +14232,7 @@
         <v>301</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F97" s="11" t="s">
         <v>302</v>
@@ -14252,22 +14249,22 @@
         <v>299</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H98" s="8">
         <v>400</v>
@@ -14278,22 +14275,22 @@
         <v>299</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D99" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F99" s="9" t="s">
         <v>1008</v>
       </c>
-      <c r="E99" s="8" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>1010</v>
-      </c>
       <c r="G99" s="9" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="H99" s="8">
         <v>400</v>
@@ -14340,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>321</v>
@@ -14354,22 +14351,22 @@
         <v>308</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D102" s="8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="F102" s="9" t="s">
         <v>1012</v>
       </c>
-      <c r="E102" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>1014</v>
-      </c>
       <c r="G102" s="9" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="H102" s="8">
         <v>400</v>
@@ -14416,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>346</v>
@@ -14430,22 +14427,22 @@
         <v>100</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H105" s="8">
         <v>400</v>
@@ -14456,22 +14453,22 @@
         <v>100</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H106" s="8">
         <v>400</v>
@@ -14482,22 +14479,22 @@
         <v>100</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="H107" s="8">
         <v>400</v>
@@ -14508,22 +14505,22 @@
         <v>100</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="H108" s="8">
         <v>400</v>
@@ -14534,22 +14531,22 @@
         <v>100</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H109" s="8">
         <v>400</v>
@@ -14560,22 +14557,22 @@
         <v>100</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H110" s="8">
         <v>400</v>
@@ -14595,7 +14592,7 @@
         <v>338</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>347</v>
@@ -14612,22 +14609,22 @@
         <v>322</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="H112" s="8">
         <v>400</v>
@@ -14638,22 +14635,22 @@
         <v>322</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H113" s="8">
         <v>400</v>
@@ -14664,22 +14661,22 @@
         <v>322</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="H114" s="8">
         <v>400</v>
@@ -14714,22 +14711,22 @@
         <v>330</v>
       </c>
       <c r="B116" s="8" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="F116" s="9" t="s">
         <v>1048</v>
       </c>
-      <c r="C116" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>1050</v>
-      </c>
       <c r="G116" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H116" s="8">
         <v>400</v>
@@ -14740,22 +14737,22 @@
         <v>330</v>
       </c>
       <c r="B117" s="8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="F117" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>1053</v>
-      </c>
       <c r="G117" s="9" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="H117" s="8">
         <v>400</v>
@@ -14766,22 +14763,22 @@
         <v>330</v>
       </c>
       <c r="B118" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="F118" s="9" t="s">
         <v>1054</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>1055</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>1056</v>
-      </c>
       <c r="G118" s="9" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H118" s="8">
         <v>400</v>
@@ -14816,22 +14813,22 @@
         <v>326</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C120" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E120" s="8" t="s">
         <v>898</v>
       </c>
-      <c r="D120" s="8" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>900</v>
-      </c>
       <c r="F120" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H120" s="8">
         <v>400</v>
@@ -14842,22 +14839,22 @@
         <v>326</v>
       </c>
       <c r="B121" s="8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="F121" s="9" t="s">
         <v>1059</v>
       </c>
-      <c r="C121" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>1061</v>
-      </c>
       <c r="G121" s="9" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H121" s="8">
         <v>400</v>
@@ -14868,22 +14865,22 @@
         <v>326</v>
       </c>
       <c r="B122" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="F122" s="9" t="s">
         <v>1062</v>
       </c>
-      <c r="C122" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>1064</v>
-      </c>
       <c r="G122" s="9" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H122" s="8">
         <v>404</v>
@@ -14894,22 +14891,22 @@
         <v>326</v>
       </c>
       <c r="B123" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="F123" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C123" s="8" t="s">
-        <v>898</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>900</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>1067</v>
-      </c>
       <c r="G123" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H123" s="8">
         <v>400</v>
@@ -14929,7 +14926,7 @@
         <v>345</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>336</v>
@@ -14946,22 +14943,22 @@
         <v>334</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H125" s="8">
         <v>400</v>
@@ -14972,22 +14969,22 @@
         <v>334</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H126" s="8">
         <v>400</v>
@@ -14998,22 +14995,22 @@
         <v>334</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="H127" s="8">
         <v>404</v>
@@ -15050,22 +15047,22 @@
         <v>348</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C129" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E129" s="8" t="s">
         <v>898</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>900</v>
-      </c>
       <c r="F129" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="H129" s="8">
         <v>400</v>
@@ -15085,10 +15082,10 @@
         <v>363</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>357</v>
@@ -15102,22 +15099,22 @@
         <v>355</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F131" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>1507</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>1510</v>
       </c>
       <c r="H131" s="1">
         <v>404</v>
@@ -15128,22 +15125,22 @@
         <v>355</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D132" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>1508</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>1509</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>1511</v>
       </c>
       <c r="H132" s="1">
         <v>400</v>
@@ -15166,7 +15163,7 @@
         <v>0</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>361</v>
@@ -15180,22 +15177,22 @@
         <v>358</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H134" s="8">
         <v>404</v>
@@ -15232,22 +15229,22 @@
         <v>366</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H136" s="8">
         <v>400</v>
@@ -15284,22 +15281,22 @@
         <v>398</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="H138" s="8">
         <v>404</v>
@@ -15400,22 +15397,22 @@
         <v>387</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H143" s="8">
         <v>400</v>
@@ -15426,22 +15423,22 @@
         <v>387</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="H144" s="8">
         <v>400</v>
@@ -15478,7 +15475,7 @@
         <v>27</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>0</v>
@@ -15487,7 +15484,7 @@
         <v>133</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H146" s="8">
         <v>200</v>
@@ -15513,7 +15510,7 @@
         <v>131</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="H147" s="8">
         <v>400</v>
@@ -15547,22 +15544,22 @@
         <v>406</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="H149" s="8">
         <v>400</v>
@@ -15573,22 +15570,22 @@
         <v>406</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D150" s="8" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G150" s="8" t="s">
         <v>1106</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F150" s="8" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G150" s="8" t="s">
-        <v>1108</v>
       </c>
       <c r="H150" s="8">
         <v>400</v>
@@ -15599,22 +15596,22 @@
         <v>406</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D151" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G151" s="8" t="s">
         <v>1110</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>1111</v>
-      </c>
-      <c r="G151" s="8" t="s">
-        <v>1112</v>
       </c>
       <c r="H151" s="8">
         <v>404</v>
@@ -15634,7 +15631,7 @@
         <v>416</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>418</v>
@@ -15651,22 +15648,22 @@
         <v>411</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D153" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G153" s="9" t="s">
         <v>1117</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>1118</v>
-      </c>
-      <c r="G153" s="9" t="s">
-        <v>1119</v>
       </c>
       <c r="H153" s="8">
         <v>400</v>
@@ -15677,22 +15674,22 @@
         <v>411</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D154" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F154" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G154" s="9" t="s">
         <v>1121</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F154" s="9" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G154" s="9" t="s">
-        <v>1123</v>
       </c>
       <c r="H154" s="8">
         <v>400</v>
@@ -15703,22 +15700,22 @@
         <v>411</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D155" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G155" s="9" t="s">
         <v>1125</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F155" s="9" t="s">
-        <v>1126</v>
-      </c>
-      <c r="G155" s="9" t="s">
-        <v>1127</v>
       </c>
       <c r="H155" s="8">
         <v>400</v>
@@ -15729,22 +15726,22 @@
         <v>411</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D156" s="8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G156" s="9" t="s">
         <v>1129</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F156" s="9" t="s">
-        <v>1130</v>
-      </c>
-      <c r="G156" s="9" t="s">
-        <v>1131</v>
       </c>
       <c r="H156" s="8">
         <v>400</v>
@@ -15755,22 +15752,22 @@
         <v>411</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D157" s="8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G157" s="9" t="s">
         <v>1133</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F157" s="9" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G157" s="9" t="s">
-        <v>1135</v>
       </c>
       <c r="H157" s="8">
         <v>400</v>
@@ -15781,22 +15778,22 @@
         <v>411</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D158" s="8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G158" s="9" t="s">
         <v>1137</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F158" s="9" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G158" s="9" t="s">
-        <v>1139</v>
       </c>
       <c r="H158" s="8">
         <v>400</v>
@@ -15833,22 +15830,22 @@
         <v>420</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="H160" s="8">
         <v>404</v>
@@ -15859,22 +15856,22 @@
         <v>420</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="H161" s="8">
         <v>400</v>
@@ -15917,7 +15914,7 @@
         <v>428</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F163" s="10" t="s">
         <v>442</v>
@@ -15940,16 +15937,16 @@
         <v>26</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H164" s="8">
         <v>400</v>
@@ -15960,22 +15957,22 @@
         <v>425</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="H165" s="8">
         <v>400</v>
@@ -15986,7 +15983,7 @@
         <v>425</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>26</v>
@@ -15995,13 +15992,13 @@
         <v>50</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="H166" s="8">
         <v>400</v>
@@ -16038,22 +16035,22 @@
         <v>429</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="H168" s="8">
         <v>400</v>
@@ -16064,22 +16061,22 @@
         <v>429</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="H169" s="8">
         <v>400</v>
@@ -16090,22 +16087,22 @@
         <v>429</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="H170" s="8">
         <v>400</v>
@@ -16116,22 +16113,22 @@
         <v>429</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="H171" s="8">
         <v>404</v>
@@ -16142,22 +16139,22 @@
         <v>429</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="H172" s="8">
         <v>400</v>
@@ -16168,22 +16165,22 @@
         <v>429</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="H173" s="8">
         <v>400</v>
@@ -16229,7 +16226,7 @@
         <v>0</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>54</v>
@@ -16243,22 +16240,22 @@
         <v>445</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="G176" s="17" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H176" s="8">
         <v>400</v>
@@ -16269,22 +16266,22 @@
         <v>445</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E177" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="H177" s="8">
         <v>400</v>
@@ -16304,7 +16301,7 @@
         <v>455</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F178" s="10" t="s">
         <v>452</v>
@@ -16321,22 +16318,22 @@
         <v>451</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="H179" s="8">
         <v>400</v>
@@ -16347,22 +16344,22 @@
         <v>451</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="H180" s="8">
         <v>400</v>
@@ -16396,22 +16393,22 @@
         <v>456</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H182" s="8">
         <v>400</v>
@@ -16422,22 +16419,22 @@
         <v>456</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="H183" s="8">
         <v>400</v>
@@ -16448,22 +16445,22 @@
         <v>456</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H184" s="8">
         <v>400</v>
@@ -16474,22 +16471,22 @@
         <v>456</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E185" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="H185" s="8">
         <v>400</v>
@@ -16523,22 +16520,22 @@
         <v>462</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H187" s="8">
         <v>400</v>
@@ -16558,7 +16555,7 @@
         <v>469</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F188" s="10" t="s">
         <v>473</v>
@@ -16575,22 +16572,22 @@
         <v>467</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H189" s="8">
         <v>400</v>
@@ -16601,22 +16598,22 @@
         <v>467</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="H190" s="8">
         <v>404</v>
@@ -16653,22 +16650,22 @@
         <v>474</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H192" s="8">
         <v>400</v>
@@ -16679,22 +16676,22 @@
         <v>474</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H193" s="8">
         <v>400</v>
@@ -16717,7 +16714,7 @@
         <v>0</v>
       </c>
       <c r="F194" s="10" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G194" s="10" t="s">
         <v>482</v>
@@ -16731,22 +16728,22 @@
         <v>479</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H195" s="8">
         <v>400</v>
@@ -16757,7 +16754,7 @@
         <v>479</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>26</v>
@@ -16769,10 +16766,10 @@
         <v>0</v>
       </c>
       <c r="F196" s="16" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="G196" s="8" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="H196" s="8">
         <v>400</v>
@@ -16783,22 +16780,22 @@
         <v>479</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="G197" s="8" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="H197" s="8">
         <v>400</v>
@@ -16809,22 +16806,22 @@
         <v>479</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F198" s="16" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="G198" s="8" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="H198" s="8">
         <v>400</v>
@@ -16835,22 +16832,22 @@
         <v>479</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F199" s="16" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="G199" s="8" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="H199" s="8">
         <v>400</v>
@@ -16870,10 +16867,10 @@
         <v>487</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="G200" s="10" t="s">
         <v>488</v>
@@ -16887,22 +16884,22 @@
         <v>485</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="G201" s="8" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="H201" s="8">
         <v>404</v>
@@ -16913,22 +16910,22 @@
         <v>485</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="H202" s="8">
         <v>400</v>
@@ -16939,22 +16936,22 @@
         <v>485</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F203" s="8" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G203" s="8" t="s">
         <v>1239</v>
-      </c>
-      <c r="G203" s="8" t="s">
-        <v>1241</v>
       </c>
       <c r="H203" s="8">
         <v>400</v>
@@ -16965,22 +16962,22 @@
         <v>485</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="G204" s="8" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="H204" s="8">
         <v>400</v>
@@ -16991,22 +16988,22 @@
         <v>485</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="G205" s="8" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H205" s="8">
         <v>400</v>
@@ -17017,22 +17014,22 @@
         <v>485</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="G206" s="8" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="H206" s="8">
         <v>400</v>
@@ -17052,7 +17049,7 @@
         <v>487</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F207" s="10" t="s">
         <v>507</v>
@@ -17095,22 +17092,22 @@
         <v>508</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="G209" s="9" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="H209" s="8">
         <v>400</v>
@@ -17121,22 +17118,22 @@
         <v>508</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="H210" s="8">
         <v>400</v>
@@ -17173,22 +17170,22 @@
         <v>492</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G212" s="9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H212" s="8">
         <v>400</v>
@@ -17208,10 +17205,10 @@
         <v>503</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F213" s="10" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="G213" s="10" t="s">
         <v>501</v>
@@ -17225,22 +17222,22 @@
         <v>499</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D214" s="8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F214" s="8" t="s">
         <v>1253</v>
       </c>
-      <c r="E214" s="8" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F214" s="8" t="s">
-        <v>1255</v>
-      </c>
       <c r="G214" s="16" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="H214" s="8">
         <v>400</v>
@@ -17263,7 +17260,7 @@
         <v>0</v>
       </c>
       <c r="F215" s="10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G215" s="10" t="s">
         <v>512</v>
@@ -17277,22 +17274,22 @@
         <v>509</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F216" s="8" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="H216" s="8">
         <v>400</v>
@@ -17303,22 +17300,22 @@
         <v>509</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="G217" s="8" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="H217" s="8">
         <v>400</v>
@@ -17329,22 +17326,22 @@
         <v>509</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F218" s="8" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="G218" s="8" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="H218" s="8">
         <v>400</v>
@@ -17355,22 +17352,22 @@
         <v>509</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C219" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E219" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="H219" s="8">
         <v>400</v>
@@ -17381,22 +17378,22 @@
         <v>509</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="H220" s="8">
         <v>400</v>
@@ -17407,22 +17404,22 @@
         <v>509</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C221" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E221" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="H221" s="8">
         <v>400</v>
@@ -17433,22 +17430,22 @@
         <v>509</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="H222" s="8">
         <v>400</v>
@@ -17459,22 +17456,22 @@
         <v>509</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="G223" s="8" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="H223" s="8">
         <v>400</v>
@@ -17494,10 +17491,10 @@
         <v>515</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F224" s="10" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="G224" s="10" t="s">
         <v>517</v>
@@ -17517,16 +17514,16 @@
         <v>26</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="G225" s="8" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="H225" s="8">
         <v>400</v>
@@ -17537,22 +17534,22 @@
         <v>513</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="G226" s="8" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="H226" s="8">
         <v>400</v>
@@ -17563,22 +17560,22 @@
         <v>513</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C227" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F227" s="8" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="G227" s="8" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="H227" s="8">
         <v>400</v>
@@ -17589,22 +17586,22 @@
         <v>513</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C228" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F228" s="8" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="G228" s="8" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="H228" s="8">
         <v>400</v>
@@ -17615,22 +17612,22 @@
         <v>513</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C229" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="G229" s="8" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="H229" s="8">
         <v>400</v>
@@ -17641,22 +17638,22 @@
         <v>513</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C230" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E230" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F230" s="8" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="G230" s="8" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="H230" s="8">
         <v>400</v>
@@ -17679,7 +17676,7 @@
         <v>0</v>
       </c>
       <c r="F231" s="10" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="G231" s="10" t="s">
         <v>522</v>
@@ -17693,22 +17690,22 @@
         <v>518</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C232" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E232" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="G232" s="8" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="H232" s="8">
         <v>400</v>
@@ -17719,22 +17716,22 @@
         <v>518</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="E233" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="G233" s="8" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="H233" s="8">
         <v>400</v>
@@ -17745,22 +17742,22 @@
         <v>518</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="E234" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F234" s="8" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="G234" s="8" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="H234" s="8">
         <v>400</v>
@@ -17797,16 +17794,16 @@
         <v>26</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E236" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F236" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G236" s="9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H236" s="8">
         <v>400</v>
@@ -17826,10 +17823,10 @@
         <v>529</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F237" s="10" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="G237" s="10" t="s">
         <v>530</v>
@@ -17849,16 +17846,16 @@
         <v>26</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F238" s="8" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="G238" s="16" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="H238" s="8">
         <v>400</v>
@@ -17881,7 +17878,7 @@
         <v>0</v>
       </c>
       <c r="F239" s="10" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G239" s="10" t="s">
         <v>542</v>
@@ -17895,7 +17892,7 @@
         <v>538</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C240" s="8" t="s">
         <v>26</v>
@@ -17907,10 +17904,10 @@
         <v>0</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="G240" s="8" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="H240" s="8">
         <v>400</v>
@@ -17921,22 +17918,22 @@
         <v>538</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="C241" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E241" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="G241" s="8" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H241" s="8">
         <v>400</v>
@@ -17947,22 +17944,22 @@
         <v>538</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E242" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="G242" s="8" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="H242" s="8">
         <v>400</v>
@@ -17973,22 +17970,22 @@
         <v>538</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="C243" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E243" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="G243" s="8" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H243" s="8">
         <v>400</v>
@@ -17999,22 +17996,22 @@
         <v>538</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E244" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="G244" s="8" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="H244" s="8">
         <v>400</v>
@@ -18034,13 +18031,13 @@
         <v>545</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="G245" s="10" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="H245">
         <v>200</v>
@@ -18048,7 +18045,7 @@
     </row>
     <row r="246" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B246" t="s">
         <v>546</v>
@@ -18063,10 +18060,10 @@
         <v>0</v>
       </c>
       <c r="F246" s="10" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="G246" s="10" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="H246">
         <v>200</v>
@@ -18089,16 +18086,16 @@
         <v>0</v>
       </c>
       <c r="F247" s="10" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="G247" s="10" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="H247">
         <v>200</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>553</v>
       </c>
@@ -18112,16 +18109,16 @@
         <v>555</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F248" s="10" t="s">
-        <v>1321</v>
+        <v>1627</v>
       </c>
       <c r="G248" s="10" t="s">
-        <v>556</v>
+        <v>1626</v>
       </c>
       <c r="H248">
-        <v>404</v>
+        <v>200</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -18135,16 +18132,16 @@
         <v>26</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F249" s="8" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="G249" s="16" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="H249" s="8">
         <v>400</v>
@@ -18152,25 +18149,25 @@
     </row>
     <row r="250" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B250" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G250" s="10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H250">
         <v>200</v>
@@ -18178,25 +18175,25 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D251" s="8" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E251" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F251" s="8" t="s">
         <v>1323</v>
       </c>
-      <c r="E251" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F251" s="8" t="s">
-        <v>1326</v>
-      </c>
       <c r="G251" s="8" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="H251" s="8">
         <v>400</v>
@@ -18204,25 +18201,25 @@
     </row>
     <row r="252" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C252" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="E252" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F252" s="8" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="G252" s="8" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="H252" s="8">
         <v>400</v>
@@ -18230,25 +18227,25 @@
     </row>
     <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="E253" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="G253" s="8" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="H253" s="8">
         <v>400</v>
@@ -18256,25 +18253,25 @@
     </row>
     <row r="254" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="E254" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="G254" s="8" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="H254" s="8">
         <v>400</v>
@@ -18282,25 +18279,25 @@
     </row>
     <row r="255" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="E255" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="G255" s="8" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="H255" s="8">
         <v>400</v>
@@ -18308,25 +18305,25 @@
     </row>
     <row r="256" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B256" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F256" s="10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G256" s="10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H256">
         <v>200</v>
@@ -18334,25 +18331,25 @@
     </row>
     <row r="257" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B257" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D257" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F257" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="G257" s="10" t="s">
         <v>578</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F257" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="G257" s="10" t="s">
-        <v>580</v>
       </c>
       <c r="H257">
         <v>200</v>
@@ -18360,16 +18357,16 @@
     </row>
     <row r="258" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B258" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>0</v>
@@ -18378,7 +18375,7 @@
         <v>143</v>
       </c>
       <c r="G258" s="10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H258">
         <v>200</v>
@@ -18386,25 +18383,25 @@
     </row>
     <row r="259" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F259" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G259" s="9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H259" s="8">
         <v>400</v>
@@ -18412,25 +18409,25 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E260" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="G260" s="8" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="H260" s="8">
         <v>400</v>
@@ -18438,25 +18435,25 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="E261" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="G261" s="8" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="H261" s="8">
         <v>400</v>
@@ -18464,25 +18461,25 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C262" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="E262" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F262" s="8" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="G262" s="8" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="H262" s="8">
         <v>400</v>
@@ -18490,25 +18487,25 @@
     </row>
     <row r="263" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B263" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D263" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F263" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="G263" s="10" t="s">
         <v>589</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F263" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="G263" s="10" t="s">
-        <v>591</v>
       </c>
       <c r="H263">
         <v>200</v>
@@ -18516,25 +18513,25 @@
     </row>
     <row r="264" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F264" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G264" s="9" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="H264" s="8">
         <v>400</v>
@@ -18542,25 +18539,25 @@
     </row>
     <row r="265" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B265" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G265" s="10" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="H265">
         <v>200</v>
@@ -18568,16 +18565,16 @@
     </row>
     <row r="266" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B266" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>0</v>
@@ -18586,7 +18583,7 @@
         <v>551</v>
       </c>
       <c r="G266" s="10" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H266">
         <v>200</v>
@@ -18594,25 +18591,25 @@
     </row>
     <row r="267" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F267" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G267" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H267" s="8">
         <v>400</v>
@@ -18620,25 +18617,25 @@
     </row>
     <row r="268" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B268" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D268" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F268" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="G268" s="10" t="s">
         <v>609</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F268" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="G268" s="10" t="s">
-        <v>611</v>
       </c>
       <c r="H268">
         <v>200</v>
@@ -18646,25 +18643,25 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C269" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F269" s="8" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="G269" s="8" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="H269" s="8">
         <v>400</v>
@@ -18672,25 +18669,25 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C270" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F270" s="8" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="G270" s="8" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="H270" s="8">
         <v>400</v>
@@ -18698,25 +18695,25 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D271" s="8" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F271" s="8" t="s">
         <v>1361</v>
       </c>
-      <c r="E271" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F271" s="8" t="s">
-        <v>1364</v>
-      </c>
       <c r="G271" s="8" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H271" s="8">
         <v>400</v>
@@ -18724,22 +18721,22 @@
     </row>
     <row r="272" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B272" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F272" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H272">
         <v>200</v>
@@ -18747,25 +18744,25 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C273" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F273" s="8" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="G273" s="8" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="H273" s="8">
         <v>400</v>
@@ -18773,25 +18770,25 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C274" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F274" s="8" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="G274" s="8" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="H274" s="8">
         <v>400</v>
@@ -18799,25 +18796,25 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="C275" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="G275" s="8" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="H275" s="8">
         <v>400</v>
@@ -18825,25 +18822,25 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C276" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F276" s="8" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="G276" s="8" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="H276" s="8">
         <v>400</v>
@@ -18851,25 +18848,25 @@
     </row>
     <row r="277" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B277" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D277" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F277" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="E277" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F277" s="10" t="s">
-        <v>622</v>
-      </c>
       <c r="G277" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H277">
         <v>200</v>
@@ -18877,25 +18874,25 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C278" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E278" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F278" s="8" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="G278" s="8" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H278" s="8">
         <v>400</v>
@@ -18903,25 +18900,25 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C279" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="E279" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F279" s="8" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="G279" s="8" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="H279" s="8">
         <v>400</v>
@@ -18929,25 +18926,25 @@
     </row>
     <row r="280" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B280" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D280" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F280" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="G280" s="10" t="s">
         <v>626</v>
-      </c>
-      <c r="E280" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F280" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="G280" s="10" t="s">
-        <v>628</v>
       </c>
       <c r="H280">
         <v>200</v>
@@ -18955,25 +18952,25 @@
     </row>
     <row r="281" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A281" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C281" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="E281" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F281" s="8" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="G281" s="8" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="H281" s="8">
         <v>400</v>
@@ -18981,25 +18978,25 @@
     </row>
     <row r="282" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C282" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E282" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F282" s="8" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="G282" s="8" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="H282" s="8">
         <v>400</v>
@@ -19007,25 +19004,25 @@
     </row>
     <row r="283" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B283" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E283" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F283" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G283" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H283">
         <v>200</v>
@@ -19033,25 +19030,25 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C284" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E284" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F284" s="9" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="G284" s="9" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="H284" s="8">
         <v>400</v>
@@ -19059,25 +19056,25 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C285" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="E285" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F285" s="9" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="G285" s="9" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="H285" s="8">
         <v>400</v>
@@ -19085,25 +19082,25 @@
     </row>
     <row r="286" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B286" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D286" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F286" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="E286" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F286" s="10" t="s">
-        <v>640</v>
-      </c>
       <c r="G286" s="10" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H286">
         <v>200</v>
@@ -19111,25 +19108,25 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="C287" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D287" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E287" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F287" s="8" t="s">
         <v>1400</v>
       </c>
-      <c r="E287" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F287" s="8" t="s">
-        <v>1403</v>
-      </c>
       <c r="G287" s="8" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="H287" s="8">
         <v>400</v>
@@ -19137,25 +19134,25 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="8" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="C288" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="E288" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F288" s="8" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="G288" s="8" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="H288" s="8">
         <v>400</v>
@@ -19163,25 +19160,25 @@
     </row>
     <row r="289" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B289" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F289" s="10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G289" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H289">
         <v>200</v>
@@ -19189,25 +19186,25 @@
     </row>
     <row r="290" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F290" s="9" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="G290" s="9" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="H290" s="8">
         <v>400</v>
@@ -19215,25 +19212,25 @@
     </row>
     <row r="291" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B291" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D291" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F291" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="G291" s="10" t="s">
         <v>653</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F291" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="G291" s="10" t="s">
-        <v>655</v>
       </c>
       <c r="H291">
         <v>200</v>
@@ -19241,25 +19238,25 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="C292" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="E292" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F292" s="8" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="G292" s="8" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H292" s="8">
         <v>400</v>
@@ -19267,25 +19264,25 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="C293" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="E293" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F293" s="8" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="G293" s="8" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H293" s="8">
         <v>400</v>
@@ -19293,22 +19290,22 @@
     </row>
     <row r="294" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E294" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="G294" s="2"/>
       <c r="H294">
@@ -19317,25 +19314,25 @@
     </row>
     <row r="295" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F295" s="9" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G295" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H295" s="8">
         <v>400</v>
@@ -19343,16 +19340,16 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B296" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>259</v>
@@ -19363,25 +19360,25 @@
     </row>
     <row r="297" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B297" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D297" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F297" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="G297" s="10" t="s">
         <v>666</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F297" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="G297" s="10" t="s">
-        <v>668</v>
       </c>
       <c r="H297">
         <v>200</v>
@@ -19389,25 +19386,25 @@
     </row>
     <row r="298" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="C298" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E298" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F298" s="8" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="G298" s="8" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="H298" s="8">
         <v>400</v>
@@ -19415,25 +19412,25 @@
     </row>
     <row r="299" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A299" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="C299" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E299" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F299" s="8" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G299" s="8" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="H299" s="8">
         <v>400</v>
@@ -19441,25 +19438,25 @@
     </row>
     <row r="300" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="C300" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="E300" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F300" s="8" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="G300" s="8" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H300" s="8">
         <v>400</v>
@@ -19467,25 +19464,25 @@
     </row>
     <row r="301" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C301" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="E301" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F301" s="8" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G301" s="8" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="H301" s="8">
         <v>400</v>
@@ -19493,25 +19490,25 @@
     </row>
     <row r="302" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B302" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F302" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G302" s="10" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="H302">
         <v>200</v>
@@ -19519,16 +19516,16 @@
     </row>
     <row r="303" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>0</v>
@@ -19542,25 +19539,25 @@
     </row>
     <row r="304" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F304" s="9" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="G304" s="9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H304" s="8">
         <v>400</v>
@@ -19568,22 +19565,22 @@
     </row>
     <row r="305" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D305" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F305" s="10" t="s">
         <v>681</v>
-      </c>
-      <c r="E305" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F305" s="10" t="s">
-        <v>683</v>
       </c>
       <c r="H305">
         <v>200</v>
@@ -19591,22 +19588,22 @@
     </row>
     <row r="306" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F306" s="10" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H306">
         <v>200</v>
@@ -19614,22 +19611,22 @@
     </row>
     <row r="307" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="E307" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F307" s="10" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H307">
         <v>200</v>
@@ -19637,25 +19634,25 @@
     </row>
     <row r="308" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A308" s="8" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="C308" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="E308" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F308" s="8" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="G308" s="8" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="H308" s="8">
         <v>404</v>
@@ -19663,22 +19660,22 @@
     </row>
     <row r="309" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D309" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F309" s="10" t="s">
         <v>691</v>
-      </c>
-      <c r="E309" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F309" s="10" t="s">
-        <v>693</v>
       </c>
       <c r="H309">
         <v>200</v>
@@ -19686,25 +19683,25 @@
     </row>
     <row r="310" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E310" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F310" s="10" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="H310">
         <v>200</v>
@@ -19712,22 +19709,22 @@
     </row>
     <row r="311" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F311" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H311">
         <v>200</v>
@@ -19735,25 +19732,25 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="C312" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E312" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F312" s="8" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="G312" s="8" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H312" s="8">
         <v>400</v>
@@ -19761,25 +19758,25 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="8" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="C313" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="E313" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="G313" s="8" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="H313" s="8">
         <v>400</v>
@@ -19787,22 +19784,22 @@
     </row>
     <row r="314" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F314" s="10" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="H314">
         <v>200</v>
@@ -19810,25 +19807,25 @@
     </row>
     <row r="315" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A315" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C315" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="E315" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F315" s="8" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="G315" s="8" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="H315" s="8">
         <v>400</v>
@@ -19836,25 +19833,25 @@
     </row>
     <row r="316" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A316" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C316" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D316" s="8" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="E316" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F316" s="8" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="G316" s="8" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H316" s="8">
         <v>400</v>
@@ -19862,25 +19859,25 @@
     </row>
     <row r="317" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A317" s="8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C317" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D317" s="8" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="E317" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F317" s="8" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="G317" s="8" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="H317" s="8">
         <v>400</v>
@@ -19888,22 +19885,22 @@
     </row>
     <row r="318" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F318" s="10" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H318">
         <v>200</v>
@@ -19911,22 +19908,22 @@
     </row>
     <row r="319" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F319" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H319">
         <v>200</v>
@@ -19934,19 +19931,19 @@
     </row>
     <row r="320" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B320" t="s">
+        <v>719</v>
+      </c>
+      <c r="D320" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B320" t="s">
-        <v>721</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>722</v>
-      </c>
       <c r="E320" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F320" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H320">
         <v>200</v>
@@ -19954,19 +19951,19 @@
     </row>
     <row r="321" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D321" t="s">
+        <v>721</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F321" s="10" t="s">
         <v>723</v>
-      </c>
-      <c r="E321" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F321" s="10" t="s">
-        <v>725</v>
       </c>
       <c r="H321">
         <v>200</v>
@@ -19974,22 +19971,22 @@
     </row>
     <row r="322" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F322" s="10" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H322">
         <v>200</v>
@@ -19997,22 +19994,22 @@
     </row>
     <row r="323" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B323" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F323" s="10" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="H323">
         <v>200</v>
@@ -20020,19 +20017,19 @@
     </row>
     <row r="324" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B324" t="s">
+        <v>735</v>
+      </c>
+      <c r="D324" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B324" t="s">
-        <v>737</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>738</v>
-      </c>
       <c r="E324" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F324" s="10" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="H324">
         <v>200</v>
@@ -20040,22 +20037,22 @@
     </row>
     <row r="325" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B325" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D325" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F325" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="H325">
         <v>200</v>
@@ -20063,22 +20060,22 @@
     </row>
     <row r="326" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F326" s="10" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="H326">
         <v>200</v>
@@ -20086,25 +20083,25 @@
     </row>
     <row r="327" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A327" s="8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="C327" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D327" s="8" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E327" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F327" s="8" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="G327" s="8" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H327" s="8">
         <v>400</v>
@@ -20112,25 +20109,25 @@
     </row>
     <row r="328" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="C328" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D328" s="8" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="E328" s="8" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F328" s="8" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="G328" s="8" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="H328" s="8">
         <v>404</v>
@@ -20138,25 +20135,25 @@
     </row>
     <row r="329" spans="1:8" s="1" customFormat="1" ht="405" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F329" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H329" s="1">
         <v>200</v>
@@ -20164,25 +20161,25 @@
     </row>
     <row r="330" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="C330" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D330" s="8" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E330" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F330" s="8" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="G330" s="8" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H330" s="8">
         <v>400</v>
@@ -20190,25 +20187,25 @@
     </row>
     <row r="331" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="C331" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D331" s="8" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E331" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F331" s="8" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G331" s="8" t="s">
         <v>1468</v>
-      </c>
-      <c r="E331" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F331" s="8" t="s">
-        <v>1470</v>
-      </c>
-      <c r="G331" s="8" t="s">
-        <v>1471</v>
       </c>
       <c r="H331" s="8">
         <v>400</v>
@@ -20216,16 +20213,16 @@
     </row>
     <row r="332" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B332" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>0</v>
@@ -20239,25 +20236,25 @@
     </row>
     <row r="333" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B333" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F333" s="10" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="H333">
         <v>400</v>
@@ -20265,22 +20262,22 @@
     </row>
     <row r="334" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B334" t="s">
         <v>764</v>
-      </c>
-      <c r="B334" t="s">
-        <v>766</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F334" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="H334">
         <v>200</v>
@@ -20288,22 +20285,22 @@
     </row>
     <row r="335" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B335" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F335" s="10" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="H335">
         <v>404</v>
@@ -20311,22 +20308,22 @@
     </row>
     <row r="336" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B336" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F336" s="10" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="H336">
         <v>404</v>
@@ -20334,16 +20331,16 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B337" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>259</v>
@@ -20354,25 +20351,25 @@
     </row>
     <row r="338" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B338" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F338" s="10" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G338" s="10" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="H338">
         <v>200</v>
@@ -20380,25 +20377,25 @@
     </row>
     <row r="339" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B339" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F339" s="10" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="G339" s="10" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="H339">
         <v>404</v>
@@ -20406,16 +20403,16 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B340" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>259</v>
@@ -20426,16 +20423,16 @@
     </row>
     <row r="341" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B341" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>0</v>
@@ -20444,7 +20441,7 @@
         <v>143</v>
       </c>
       <c r="G341" s="10" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="H341">
         <v>200</v>
@@ -20452,25 +20449,25 @@
     </row>
     <row r="342" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B342" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F342" s="10" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="G342" s="10" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="H342">
         <v>404</v>
@@ -20478,22 +20475,22 @@
     </row>
     <row r="343" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B343" t="s">
         <v>798</v>
-      </c>
-      <c r="B343" t="s">
-        <v>800</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F343" s="10" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H343">
         <v>200</v>
@@ -20501,22 +20498,22 @@
     </row>
     <row r="344" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B344" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F344" s="10" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="H344">
         <v>400</v>
@@ -20524,22 +20521,22 @@
     </row>
     <row r="345" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B345" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F345" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H345">
         <v>200</v>
@@ -20547,22 +20544,22 @@
     </row>
     <row r="346" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B346" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F346" s="10" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="H346" s="17">
         <v>404</v>
@@ -20570,16 +20567,16 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B347" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>259</v>
@@ -20590,42 +20587,42 @@
     </row>
     <row r="348" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B348" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F348" s="10" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="349" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B349" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F349" s="10" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="H349">
         <v>200</v>
@@ -20633,22 +20630,22 @@
     </row>
     <row r="350" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B350" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F350" s="10" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="H350">
         <v>400</v>
@@ -20656,22 +20653,22 @@
     </row>
     <row r="351" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B351" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F351" s="10" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H351">
         <v>200</v>
@@ -20679,22 +20676,22 @@
     </row>
     <row r="352" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B352" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F352" s="10" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="H352">
         <v>404</v>
@@ -20702,22 +20699,22 @@
     </row>
     <row r="353" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B353" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="F353" s="10" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="H353">
         <v>400</v>
@@ -20725,25 +20722,25 @@
     </row>
     <row r="354" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B354" t="s">
         <v>1546</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1549</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F354" s="10" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="G354" s="10" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="H354">
         <v>200</v>
@@ -20751,25 +20748,25 @@
     </row>
     <row r="355" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="B355" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F355" s="10" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="G355" s="10" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="H355">
         <v>400</v>
@@ -20777,25 +20774,25 @@
     </row>
     <row r="356" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="B356" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F356" s="10" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="G356" s="10" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="H356">
         <v>404</v>
@@ -20803,25 +20800,25 @@
     </row>
     <row r="357" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="B357" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F357" s="10" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="G357" s="10" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="H357">
         <v>200</v>
@@ -20829,25 +20826,25 @@
     </row>
     <row r="358" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="B358" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F358" s="10" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="G358" s="10" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="H358">
         <v>404</v>
@@ -20855,25 +20852,25 @@
     </row>
     <row r="359" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="B359" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F359" s="10" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="G359" s="10" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="H359">
         <v>200</v>
@@ -20881,25 +20878,25 @@
     </row>
     <row r="360" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="B360" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F360" s="10" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="G360" s="10" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="H360">
         <v>400</v>
@@ -20907,25 +20904,25 @@
     </row>
     <row r="361" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="B361" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F361" s="10" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="G361" s="10" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H361">
         <v>400</v>
@@ -20933,16 +20930,16 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="B362" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>259</v>
@@ -20954,25 +20951,25 @@
     </row>
     <row r="363" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="B363" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F363" s="10" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="G363" s="10" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="H363">
         <v>200</v>
@@ -20980,25 +20977,25 @@
     </row>
     <row r="364" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="B364" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D364" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F364" s="10" t="s">
         <v>1596</v>
       </c>
-      <c r="E364" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F364" s="10" t="s">
-        <v>1599</v>
-      </c>
       <c r="G364" s="10" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="H364">
         <v>400</v>
@@ -21006,25 +21003,25 @@
     </row>
     <row r="365" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="B365" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F365" s="10" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="G365" s="10" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="H365">
         <v>400</v>
@@ -21032,25 +21029,25 @@
     </row>
     <row r="366" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="B366" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F366" s="10" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="G366" s="10" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="H366">
         <v>200</v>
@@ -21058,25 +21055,25 @@
     </row>
     <row r="367" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="B367" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D367" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F367" s="10" t="s">
         <v>1611</v>
       </c>
-      <c r="E367" s="1" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F367" s="10" t="s">
-        <v>1614</v>
-      </c>
       <c r="G367" s="10" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="H367">
         <v>400</v>
@@ -21084,25 +21081,25 @@
     </row>
     <row r="368" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="B368" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F368" s="10" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="G368" s="10" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="H368">
         <v>400</v>

--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="commonAPI" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="1585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="1582">
   <si>
     <t>post</t>
   </si>
@@ -3274,32 +3274,6 @@
     <t>verify captain view</t>
   </si>
   <si>
-    <t>{
-    "user_id": "11",
-    "outlet_id":"1"
-}</t>
-  </si>
-  <si>
-    <t>{
-    "detail": "Successfully retrieved captain details",
-    "data": {
-        "outlet_id": 1,
-        "user_id": 11,
-        "name": "ramucaptain",
-        "mobile": "6936343434",
-        "aadhar_number": "343332322321",
-        "address": "satara",
-        "dob": "12 Jan 2023",
-        "email": "h@gmaom",
-        "is_active": true,
-        "created_by": "owner",
-        "updated_by": null,
-        "created_on": "02 May 2025 05:02:08 PM",
-        "updated_on": null
-    }
-}</t>
-  </si>
-  <si>
     <t>captainlistview</t>
   </si>
   <si>
@@ -3309,13 +3283,6 @@
     <t>verify captain list view</t>
   </si>
   <si>
-    <t>{
- "update_user_id":"2",
- "user_id":"12",
- "outlet_id":"1"
-}</t>
-  </si>
-  <si>
     <t>captaindelete</t>
   </si>
   <si>
@@ -3323,11 +3290,6 @@
   </si>
   <si>
     <t>verify captain delete</t>
-  </si>
-  <si>
-    <t>{
-    "detail": "(pymysql.err.IntegrityError) (1048, \"Column 'user_id' cannot be null\")\n[SQL: UPDATE user_settings SET user_id=%(user_id)s WHERE user_settings.user_settings_id = %(user_settings_user_settings_id)s]\n[parameters: {'user_id': None, 'user_settings_user_settings_id': 5}]\n(Background on this error at: https://sqlalche.me/e/20/gkpj)"
-}</t>
   </si>
   <si>
     <t>https://men4u.xyz/v2/common/captain_create</t>
@@ -7772,13 +7734,6 @@
   </si>
   <si>
     <t>{
- "update_user_id":"2",
- "user_id":"17",
- "outlet_id":"1"
-}</t>
-  </si>
-  <si>
-    <t>{
 "outlet_id":"",
 "category_name":"south Indian",
 "image":"C:\Users\hp\Downloads\menus\medu vada.jpg",
@@ -8577,13 +8532,6 @@
   </si>
   <si>
     <t>{
-    "user_id":2,
- "outlet_id":1,
- "app_source":"captain_app"
-}</t>
-  </si>
-  <si>
-    <t>{{
   "detail": "Successfully retrieved captains",
   "data": [
     {
@@ -8599,28 +8547,76 @@
 }</t>
   </si>
   <si>
-    <t>{
-  "detail": "Successfully retrieved captains",
-  "data": [
-    {
-      "outlet_id": 1,
-      "user_id": 106,
-      "name": "ramucaptain",
-      "mobile": "8945678989",
-      "dob": "12 Jan 2023",
-      "email": "h@gmail.com",
-      "is_active": 1
-    }
-  ]
-}</t>
-  </si>
-  <si>
     <t xml:space="preserve">{
     "user_id":2,
  "outlet_id":1,
  "app_source":"captain_app"
 }
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "update_user_id":2,
+ "user_id":20,
+ "outlet_id":1,
+ "app_source":"captain_app"
+}
+</t>
+  </si>
+  <si>
+    <t>{
+  "detail": "Successfully retrieved captain details",
+  "data": {
+    "outlet_id": 1,
+    "user_id": 20,
+    "name": "ramucaptain",
+    "mobile": "8898989898",
+    "aadhar_number": "343332322321",
+    "address": "satara",
+    "dob": "12 Jan 2023",
+    "email": "h@gmail.com",
+    "is_active": 1,
+    "created_by": "owner",
+    "updated_by": "owner",
+    "created_on": "05 May 2025 12:21:02 PM",
+    "updated_on": "09 Jun 2025 01:30:06 AM",
+    "functionalities": [
+      {
+        "functionality_id": 1,
+        "functionality_name": "manage_menu"
+      },
+      {
+        "functionality_id": 2,
+        "functionality_name": "manage_menu_category"
+      },
+      {
+        "functionality_id": 3,
+        "functionality_name": "manage_section"
+      },
+      {
+        "functionality_id": 4,
+        "functionality_name": "manage_table"
+      },
+      {
+        "functionality_id": 7,
+        "functionality_name": "manage_staff"
+      }
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>{
+  "detail": "Captain deleted successfully"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "update_user_id":2,
+ "user_id":103,
+ "outlet_id":1,
+ "app_source":"captain_app"
+}</t>
   </si>
 </sst>
 </file>
@@ -9075,8 +9071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10380,13 +10376,13 @@
         <v>0</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="F69" s="1">
         <v>200</v>
@@ -10400,19 +10396,19 @@
         <v>0</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>1580</v>
+        <v>1575</v>
       </c>
       <c r="F70" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>515</v>
       </c>
@@ -10420,50 +10416,50 @@
         <v>0</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>518</v>
+        <v>1578</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>519</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="225" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="F72" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C73" t="s">
-        <v>532</v>
+      <c r="C73" s="14" t="s">
+        <v>528</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>523</v>
+        <v>1581</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>527</v>
+        <v>1580</v>
       </c>
       <c r="F73" s="1">
         <v>200</v>
@@ -10471,19 +10467,19 @@
     </row>
     <row r="74" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>529</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E74" s="10" t="s">
         <v>533</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>537</v>
       </c>
       <c r="F74" s="1">
         <v>200</v>
@@ -10491,19 +10487,19 @@
     </row>
     <row r="75" spans="1:6" ht="405" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="F75" s="1">
         <v>200</v>
@@ -10511,19 +10507,19 @@
     </row>
     <row r="76" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="F76" s="1">
         <v>200</v>
@@ -10531,19 +10527,19 @@
     </row>
     <row r="77" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>1571</v>
+        <v>1566</v>
       </c>
       <c r="F77" s="1">
         <v>200</v>
@@ -10551,19 +10547,19 @@
     </row>
     <row r="78" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="F78" s="1">
         <v>200</v>
@@ -10571,19 +10567,19 @@
     </row>
     <row r="79" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F79" s="1">
         <v>200</v>
@@ -10591,19 +10587,19 @@
     </row>
     <row r="80" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>559</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>567</v>
-      </c>
       <c r="D80" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F80" s="1">
         <v>200</v>
@@ -10611,19 +10607,19 @@
     </row>
     <row r="81" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>565</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="E81" s="10" t="s">
         <v>569</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>573</v>
       </c>
       <c r="F81" s="1">
         <v>200</v>
@@ -10631,19 +10627,19 @@
     </row>
     <row r="82" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D82" s="10" t="s">
         <v>143</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F82" s="1">
         <v>200</v>
@@ -10651,36 +10647,36 @@
     </row>
     <row r="83" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>576</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="E83" s="10" t="s">
         <v>580</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F84" s="1">
         <v>200</v>
@@ -10688,19 +10684,19 @@
     </row>
     <row r="85" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F85" s="1">
         <v>200</v>
@@ -10708,19 +10704,19 @@
     </row>
     <row r="86" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>596</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="E86" s="10" t="s">
         <v>600</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>605</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>604</v>
       </c>
       <c r="F86" s="1">
         <v>200</v>
@@ -10728,16 +10724,16 @@
     </row>
     <row r="87" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F87" s="1">
         <v>200</v>
@@ -10745,19 +10741,19 @@
     </row>
     <row r="88" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>607</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="D88" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>614</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>615</v>
-      </c>
       <c r="E88" s="10" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F88" s="1">
         <v>200</v>
@@ -10765,19 +10761,19 @@
     </row>
     <row r="89" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>613</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="E89" s="10" t="s">
         <v>617</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>621</v>
       </c>
       <c r="F89" s="1">
         <v>200</v>
@@ -10785,19 +10781,19 @@
     </row>
     <row r="90" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F90" s="1">
         <v>200</v>
@@ -10805,16 +10801,16 @@
     </row>
     <row r="91" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>625</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>629</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>633</v>
       </c>
       <c r="F91" s="1">
         <v>200</v>
@@ -10822,19 +10818,19 @@
     </row>
     <row r="92" spans="1:6" ht="345" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F92" s="1">
         <v>200</v>
@@ -10842,16 +10838,16 @@
     </row>
     <row r="93" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F93" s="1">
         <v>200</v>
@@ -10859,19 +10855,19 @@
     </row>
     <row r="94" spans="1:6" ht="285" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F94" s="1">
         <v>200</v>
@@ -10879,13 +10875,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F95" s="1">
         <v>200</v>
@@ -10893,16 +10889,16 @@
     </row>
     <row r="96" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F96" s="1">
         <v>200</v>
@@ -10910,19 +10906,19 @@
     </row>
     <row r="97" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>1565</v>
+        <v>1560</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="F97" s="1">
         <v>200</v>
@@ -10930,13 +10926,13 @@
     </row>
     <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D98" s="10" t="s">
         <v>143</v>
@@ -10947,16 +10943,16 @@
     </row>
     <row r="99" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>668</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="D99" s="10" t="s">
         <v>672</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>675</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>676</v>
       </c>
       <c r="F99" s="1">
         <v>200</v>
@@ -10964,16 +10960,16 @@
     </row>
     <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>673</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>676</v>
+      </c>
+      <c r="D100" s="10" t="s">
         <v>677</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>680</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>681</v>
       </c>
       <c r="F100" s="1">
         <v>200</v>
@@ -10981,16 +10977,16 @@
     </row>
     <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>678</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>682</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>686</v>
       </c>
       <c r="F101" s="1">
         <v>200</v>
@@ -10998,16 +10994,16 @@
     </row>
     <row r="102" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>683</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="D102" s="10" t="s">
         <v>687</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>690</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>691</v>
       </c>
       <c r="F102" s="1">
         <v>200</v>
@@ -11015,16 +11011,16 @@
     </row>
     <row r="103" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E103">
         <v>200</v>
@@ -11032,16 +11028,16 @@
     </row>
     <row r="104" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F104" s="1">
         <v>200</v>
@@ -11049,33 +11045,33 @@
     </row>
     <row r="105" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F106" s="1">
         <v>200</v>
@@ -11083,16 +11079,16 @@
     </row>
     <row r="107" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="F107">
         <v>200</v>
@@ -11100,13 +11096,13 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F108" s="1">
         <v>200</v>
@@ -11114,19 +11110,19 @@
     </row>
     <row r="109" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F109">
         <v>200</v>
@@ -11134,13 +11130,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F110" s="1">
         <v>200</v>
@@ -11148,19 +11144,19 @@
     </row>
     <row r="111" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>143</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F111">
         <v>200</v>
@@ -11168,16 +11164,16 @@
     </row>
     <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F112" s="1">
         <v>200</v>
@@ -11185,13 +11181,13 @@
     </row>
     <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F113">
         <v>200</v>
@@ -11199,13 +11195,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F114" s="1">
         <v>200</v>
@@ -11213,16 +11209,16 @@
     </row>
     <row r="115" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F115">
         <v>200</v>
@@ -11230,16 +11226,16 @@
     </row>
     <row r="116" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>804</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>812</v>
-      </c>
       <c r="D116" s="10" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F116" s="1">
         <v>200</v>
@@ -11247,16 +11243,16 @@
     </row>
     <row r="117" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F117">
         <v>200</v>
@@ -11264,16 +11260,16 @@
     </row>
     <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F118" s="1">
         <v>200</v>
@@ -11281,19 +11277,19 @@
     </row>
     <row r="119" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>1490</v>
+        <v>1485</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>1492</v>
+        <v>1487</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="F119">
         <v>200</v>
@@ -11301,19 +11297,19 @@
     </row>
     <row r="120" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>1505</v>
+        <v>1500</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>1507</v>
+        <v>1502</v>
       </c>
       <c r="F120" s="1">
         <v>200</v>
@@ -11321,19 +11317,19 @@
     </row>
     <row r="121" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>1519</v>
+        <v>1514</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="F121">
         <v>200</v>
@@ -11341,13 +11337,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>1533</v>
+        <v>1528</v>
       </c>
       <c r="F122" s="1">
         <v>200</v>
@@ -11355,16 +11351,16 @@
     </row>
     <row r="123" spans="1:6" ht="195" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>1534</v>
+        <v>1529</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123">
@@ -11373,16 +11369,16 @@
     </row>
     <row r="124" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D124" s="10" t="s">
         <v>1548</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>1444</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D124" s="10" t="s">
-        <v>1553</v>
       </c>
       <c r="F124" s="1">
         <v>200</v>
@@ -11502,9 +11498,10 @@
     <hyperlink ref="C124" r:id="rId110"/>
     <hyperlink ref="C69" r:id="rId111"/>
     <hyperlink ref="C71" r:id="rId112"/>
+    <hyperlink ref="C73" r:id="rId113"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId113"/>
+  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId114"/>
 </worksheet>
 </file>
 
@@ -11578,8 +11575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C217" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F218" sqref="F218"/>
+    <sheetView topLeftCell="C218" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F219" sqref="F219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11692,7 +11689,7 @@
         <v>80</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="H4" s="1">
         <v>400</v>
@@ -11770,7 +11767,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="H7" s="1">
         <v>404</v>
@@ -11926,7 +11923,7 @@
         <v>104</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="H13" s="8">
         <v>400</v>
@@ -12004,7 +12001,7 @@
         <v>124</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="H16" s="8">
         <v>400</v>
@@ -12056,7 +12053,7 @@
         <v>121</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="H18" s="8">
         <v>400</v>
@@ -12131,7 +12128,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>168</v>
@@ -12157,10 +12154,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="H22" s="1">
         <v>409</v>
@@ -12177,16 +12174,16 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E23" t="s">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="H23">
         <v>404</v>
@@ -12209,10 +12206,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="H24">
         <v>400</v>
@@ -12235,10 +12232,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="H25">
         <v>400</v>
@@ -12261,10 +12258,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="H26">
         <v>400</v>
@@ -12287,7 +12284,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>172</v>
@@ -12301,22 +12298,22 @@
         <v>65</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="H28" s="1">
         <v>400</v>
@@ -12327,22 +12324,22 @@
         <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="H29" s="1">
         <v>400</v>
@@ -12353,22 +12350,22 @@
         <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H30" s="1">
         <v>400</v>
@@ -12379,22 +12376,22 @@
         <v>65</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="H31" s="1">
         <v>400</v>
@@ -12429,22 +12426,22 @@
         <v>68</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="H33" s="8">
         <v>400</v>
@@ -12479,22 +12476,22 @@
         <v>72</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="H35" s="8">
         <v>400</v>
@@ -12514,7 +12511,7 @@
         <v>188</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>189</v>
@@ -12531,22 +12528,22 @@
         <v>186</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="H37" s="8">
         <v>404</v>
@@ -12557,7 +12554,7 @@
         <v>134</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>27</v>
@@ -12566,10 +12563,10 @@
         <v>138</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>176</v>
@@ -12583,7 +12580,7 @@
         <v>134</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>26</v>
@@ -12592,7 +12589,7 @@
         <v>139</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>140</v>
@@ -12615,13 +12612,13 @@
         <v>27</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>153</v>
@@ -12647,10 +12644,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="H41" s="2">
         <v>404</v>
@@ -12667,7 +12664,7 @@
         <v>27</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>0</v>
@@ -12702,7 +12699,7 @@
         <v>147</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="H43" s="2">
         <v>404</v>
@@ -12713,22 +12710,22 @@
         <v>141</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F44" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>873</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>877</v>
       </c>
       <c r="H44" s="2">
         <v>400</v>
@@ -12748,10 +12745,10 @@
         <v>161</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>162</v>
@@ -12774,10 +12771,10 @@
         <v>164</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>165</v>
@@ -12817,22 +12814,22 @@
         <v>202</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="H48" s="8">
         <v>400</v>
@@ -12843,22 +12840,22 @@
         <v>202</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="H49" s="8">
         <v>400</v>
@@ -12895,22 +12892,22 @@
         <v>197</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="H51" s="8">
         <v>400</v>
@@ -12947,22 +12944,22 @@
         <v>204</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="H53" s="8">
         <v>404</v>
@@ -12985,10 +12982,10 @@
         <v>0</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="H54" s="2">
         <v>200</v>
@@ -13008,7 +13005,7 @@
         <v>220</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>221</v>
@@ -13037,7 +13034,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>229</v>
@@ -13048,25 +13045,25 @@
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>887</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="F57" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>890</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>891</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>892</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>893</v>
-      </c>
       <c r="G57" s="9" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="H57" s="8">
         <v>400</v>
@@ -13074,25 +13071,25 @@
     </row>
     <row r="58" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>890</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>894</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>890</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>895</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>892</v>
-      </c>
       <c r="F58" s="9" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="H58" s="8">
         <v>400</v>
@@ -13100,25 +13097,25 @@
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>896</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>890</v>
-      </c>
-      <c r="D59" s="8" t="s">
+      <c r="F59" s="9" t="s">
+        <v>894</v>
+      </c>
+      <c r="G59" s="9" t="s">
         <v>897</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>892</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>898</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>901</v>
       </c>
       <c r="H59" s="8">
         <v>400</v>
@@ -13138,7 +13135,7 @@
         <v>235</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>239</v>
@@ -13155,22 +13152,22 @@
         <v>231</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="H61" s="8">
         <v>400</v>
@@ -13181,22 +13178,22 @@
         <v>231</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F62" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="G62" s="9" t="s">
         <v>918</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>922</v>
       </c>
       <c r="H62" s="8">
         <v>400</v>
@@ -13207,22 +13204,22 @@
         <v>231</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="H63" s="8">
         <v>400</v>
@@ -13233,22 +13230,22 @@
         <v>231</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="H64" s="8">
         <v>400</v>
@@ -13259,22 +13256,22 @@
         <v>231</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="H65" s="8">
         <v>400</v>
@@ -13297,7 +13294,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>238</v>
@@ -13311,22 +13308,22 @@
         <v>240</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="H67" s="8">
         <v>400</v>
@@ -13337,22 +13334,22 @@
         <v>240</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="H68" s="8">
         <v>400</v>
@@ -13389,22 +13386,22 @@
         <v>243</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="H70" s="8">
         <v>400</v>
@@ -13424,7 +13421,7 @@
         <v>253</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>255</v>
@@ -13441,22 +13438,22 @@
         <v>249</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>1488</v>
+        <v>1483</v>
       </c>
       <c r="H72" s="8">
         <v>400</v>
@@ -13467,22 +13464,22 @@
         <v>249</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>1489</v>
+        <v>1484</v>
       </c>
       <c r="H73" s="8">
         <v>400</v>
@@ -13567,22 +13564,22 @@
         <v>268</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="H77" s="8">
         <v>400</v>
@@ -13619,22 +13616,22 @@
         <v>273</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="H79" s="8">
         <v>400</v>
@@ -13645,22 +13642,22 @@
         <v>273</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="H80" s="8">
         <v>400</v>
@@ -13671,22 +13668,22 @@
         <v>273</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="H81" s="8">
         <v>400</v>
@@ -13706,10 +13703,10 @@
         <v>284</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>297</v>
@@ -13723,22 +13720,22 @@
         <v>279</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="E83" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="H83" s="8">
         <v>400</v>
@@ -13749,22 +13746,22 @@
         <v>279</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="H84" s="8">
         <v>400</v>
@@ -13775,22 +13772,22 @@
         <v>279</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D85" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>954</v>
+      </c>
+      <c r="G85" s="9" t="s">
         <v>967</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>958</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>971</v>
       </c>
       <c r="H85" s="8">
         <v>400</v>
@@ -13801,22 +13798,22 @@
         <v>279</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="H86" s="8">
         <v>400</v>
@@ -13827,22 +13824,22 @@
         <v>279</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="H87" s="8">
         <v>400</v>
@@ -13853,22 +13850,22 @@
         <v>279</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="H88" s="8">
         <v>400</v>
@@ -13905,22 +13902,22 @@
         <v>287</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="H90" s="8">
         <v>400</v>
@@ -13931,22 +13928,22 @@
         <v>287</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="H91" s="8">
         <v>400</v>
@@ -13957,22 +13954,22 @@
         <v>287</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="H92" s="8">
         <v>400</v>
@@ -13983,22 +13980,22 @@
         <v>287</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="H93" s="8">
         <v>400</v>
@@ -14009,22 +14006,22 @@
         <v>287</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="H94" s="8">
         <v>400</v>
@@ -14061,22 +14058,22 @@
         <v>291</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="H96" s="8">
         <v>400</v>
@@ -14096,7 +14093,7 @@
         <v>301</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F97" s="11" t="s">
         <v>302</v>
@@ -14113,22 +14110,22 @@
         <v>299</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="H98" s="8">
         <v>400</v>
@@ -14139,22 +14136,22 @@
         <v>299</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="H99" s="8">
         <v>400</v>
@@ -14201,7 +14198,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G101" s="11" t="s">
         <v>321</v>
@@ -14215,22 +14212,22 @@
         <v>308</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="H102" s="8">
         <v>400</v>
@@ -14277,7 +14274,7 @@
         <v>0</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>346</v>
@@ -14291,22 +14288,22 @@
         <v>100</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="H105" s="8">
         <v>400</v>
@@ -14317,22 +14314,22 @@
         <v>100</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="H106" s="8">
         <v>400</v>
@@ -14343,22 +14340,22 @@
         <v>100</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="H107" s="8">
         <v>400</v>
@@ -14369,22 +14366,22 @@
         <v>100</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="H108" s="8">
         <v>400</v>
@@ -14395,22 +14392,22 @@
         <v>100</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F109" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G109" s="9" t="s">
         <v>1027</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>1031</v>
       </c>
       <c r="H109" s="8">
         <v>400</v>
@@ -14421,22 +14418,22 @@
         <v>100</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="H110" s="8">
         <v>400</v>
@@ -14456,7 +14453,7 @@
         <v>338</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>347</v>
@@ -14473,22 +14470,22 @@
         <v>322</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="H112" s="8">
         <v>400</v>
@@ -14499,22 +14496,22 @@
         <v>322</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="H113" s="8">
         <v>400</v>
@@ -14525,22 +14522,22 @@
         <v>322</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H114" s="8">
         <v>400</v>
@@ -14575,22 +14572,22 @@
         <v>330</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="H116" s="8">
         <v>400</v>
@@ -14601,22 +14598,22 @@
         <v>330</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="H117" s="8">
         <v>400</v>
@@ -14627,22 +14624,22 @@
         <v>330</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H118" s="8">
         <v>400</v>
@@ -14677,22 +14674,22 @@
         <v>326</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="H120" s="8">
         <v>400</v>
@@ -14703,22 +14700,22 @@
         <v>326</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H121" s="8">
         <v>400</v>
@@ -14729,22 +14726,22 @@
         <v>326</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="H122" s="8">
         <v>404</v>
@@ -14755,22 +14752,22 @@
         <v>326</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="H123" s="8">
         <v>400</v>
@@ -14790,7 +14787,7 @@
         <v>345</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>336</v>
@@ -14807,22 +14804,22 @@
         <v>334</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="H125" s="8">
         <v>400</v>
@@ -14833,22 +14830,22 @@
         <v>334</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="H126" s="8">
         <v>400</v>
@@ -14859,22 +14856,22 @@
         <v>334</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="H127" s="8">
         <v>404</v>
@@ -14911,22 +14908,22 @@
         <v>348</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
       <c r="H129" s="8">
         <v>400</v>
@@ -14946,10 +14943,10 @@
         <v>363</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>357</v>
@@ -14963,22 +14960,22 @@
         <v>355</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="H131" s="1">
         <v>404</v>
@@ -14989,22 +14986,22 @@
         <v>355</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="H132" s="1">
         <v>400</v>
@@ -15027,7 +15024,7 @@
         <v>0</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>361</v>
@@ -15041,22 +15038,22 @@
         <v>358</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="H134" s="8">
         <v>404</v>
@@ -15093,22 +15090,22 @@
         <v>366</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="H136" s="8">
         <v>400</v>
@@ -15145,22 +15142,22 @@
         <v>398</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="H138" s="8">
         <v>404</v>
@@ -15261,22 +15258,22 @@
         <v>387</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="H143" s="8">
         <v>400</v>
@@ -15287,22 +15284,22 @@
         <v>387</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="H144" s="8">
         <v>400</v>
@@ -15339,7 +15336,7 @@
         <v>27</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>0</v>
@@ -15348,7 +15345,7 @@
         <v>133</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H146" s="8">
         <v>200</v>
@@ -15374,7 +15371,7 @@
         <v>131</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="H147" s="8">
         <v>400</v>
@@ -15408,22 +15405,22 @@
         <v>406</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C149" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="H149" s="8">
         <v>400</v>
@@ -15434,22 +15431,22 @@
         <v>406</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="H150" s="8">
         <v>400</v>
@@ -15460,22 +15457,22 @@
         <v>406</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="H151" s="8">
         <v>404</v>
@@ -15495,7 +15492,7 @@
         <v>416</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>418</v>
@@ -15512,22 +15509,22 @@
         <v>411</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="C153" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="H153" s="8">
         <v>400</v>
@@ -15538,22 +15535,22 @@
         <v>411</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="H154" s="8">
         <v>400</v>
@@ -15564,22 +15561,22 @@
         <v>411</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="H155" s="8">
         <v>400</v>
@@ -15590,22 +15587,22 @@
         <v>411</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="H156" s="8">
         <v>400</v>
@@ -15616,22 +15613,22 @@
         <v>411</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="G157" s="9" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="H157" s="8">
         <v>400</v>
@@ -15642,22 +15639,22 @@
         <v>411</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C158" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="G158" s="9" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="H158" s="8">
         <v>400</v>
@@ -15694,22 +15691,22 @@
         <v>420</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C160" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="H160" s="8">
         <v>404</v>
@@ -15720,22 +15717,22 @@
         <v>420</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="C161" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="H161" s="8">
         <v>400</v>
@@ -15778,7 +15775,7 @@
         <v>428</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F163" s="10" t="s">
         <v>442</v>
@@ -15801,16 +15798,16 @@
         <v>26</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="H164" s="8">
         <v>400</v>
@@ -15821,22 +15818,22 @@
         <v>425</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C165" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="H165" s="8">
         <v>400</v>
@@ -15847,7 +15844,7 @@
         <v>425</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="C166" s="8" t="s">
         <v>26</v>
@@ -15856,13 +15853,13 @@
         <v>50</v>
       </c>
       <c r="E166" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="H166" s="8">
         <v>400</v>
@@ -15899,22 +15896,22 @@
         <v>429</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="C168" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="E168" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="H168" s="8">
         <v>400</v>
@@ -15925,22 +15922,22 @@
         <v>429</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="C169" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="E169" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="H169" s="8">
         <v>400</v>
@@ -15951,22 +15948,22 @@
         <v>429</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="C170" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="H170" s="8">
         <v>400</v>
@@ -15977,22 +15974,22 @@
         <v>429</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C171" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="H171" s="8">
         <v>404</v>
@@ -16003,22 +16000,22 @@
         <v>429</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="H172" s="8">
         <v>400</v>
@@ -16029,22 +16026,22 @@
         <v>429</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C173" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="H173" s="8">
         <v>400</v>
@@ -16090,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="G175" s="2" t="s">
         <v>54</v>
@@ -16104,22 +16101,22 @@
         <v>445</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C176" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="G176" s="17" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="H176" s="8">
         <v>400</v>
@@ -16130,22 +16127,22 @@
         <v>445</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="E177" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="H177" s="8">
         <v>400</v>
@@ -16165,7 +16162,7 @@
         <v>455</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F178" s="10" t="s">
         <v>452</v>
@@ -16182,22 +16179,22 @@
         <v>451</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C179" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="H179" s="8">
         <v>400</v>
@@ -16208,22 +16205,22 @@
         <v>451</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C180" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="H180" s="8">
         <v>400</v>
@@ -16257,22 +16254,22 @@
         <v>456</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C182" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="H182" s="8">
         <v>400</v>
@@ -16283,22 +16280,22 @@
         <v>456</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="C183" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="H183" s="8">
         <v>400</v>
@@ -16309,22 +16306,22 @@
         <v>456</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="C184" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="G184" s="8" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H184" s="8">
         <v>400</v>
@@ -16335,22 +16332,22 @@
         <v>456</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="C185" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="E185" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="H185" s="8">
         <v>400</v>
@@ -16384,22 +16381,22 @@
         <v>462</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C187" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G187" s="9" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="H187" s="8">
         <v>400</v>
@@ -16419,7 +16416,7 @@
         <v>469</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F188" s="10" t="s">
         <v>473</v>
@@ -16436,22 +16433,22 @@
         <v>467</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F189" s="8" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H189" s="8">
         <v>400</v>
@@ -16462,22 +16459,22 @@
         <v>467</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="C190" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F190" s="8" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="G190" s="8" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="H190" s="8">
         <v>404</v>
@@ -16514,22 +16511,22 @@
         <v>474</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="H192" s="8">
         <v>400</v>
@@ -16540,22 +16537,22 @@
         <v>474</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="H193" s="8">
         <v>400</v>
@@ -16578,7 +16575,7 @@
         <v>0</v>
       </c>
       <c r="F194" s="10" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="G194" s="10" t="s">
         <v>482</v>
@@ -16592,22 +16589,22 @@
         <v>479</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="C195" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="H195" s="8">
         <v>400</v>
@@ -16618,7 +16615,7 @@
         <v>479</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="C196" s="8" t="s">
         <v>26</v>
@@ -16630,10 +16627,10 @@
         <v>0</v>
       </c>
       <c r="F196" s="16" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="G196" s="8" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="H196" s="8">
         <v>400</v>
@@ -16644,22 +16641,22 @@
         <v>479</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="G197" s="8" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="H197" s="8">
         <v>400</v>
@@ -16670,22 +16667,22 @@
         <v>479</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F198" s="16" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="G198" s="8" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="H198" s="8">
         <v>400</v>
@@ -16696,22 +16693,22 @@
         <v>479</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F199" s="16" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="G199" s="8" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="H199" s="8">
         <v>400</v>
@@ -16731,10 +16728,10 @@
         <v>487</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="G200" s="10" t="s">
         <v>488</v>
@@ -16748,22 +16745,22 @@
         <v>485</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C201" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="G201" s="8" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="H201" s="8">
         <v>404</v>
@@ -16774,22 +16771,22 @@
         <v>485</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="G202" s="8" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="H202" s="8">
         <v>400</v>
@@ -16800,22 +16797,22 @@
         <v>485</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="H203" s="8">
         <v>400</v>
@@ -16826,22 +16823,22 @@
         <v>485</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="G204" s="8" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="H204" s="8">
         <v>400</v>
@@ -16852,22 +16849,22 @@
         <v>485</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="G205" s="8" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H205" s="8">
         <v>400</v>
@@ -16878,22 +16875,22 @@
         <v>485</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="G206" s="8" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="H206" s="8">
         <v>400</v>
@@ -16913,7 +16910,7 @@
         <v>487</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F207" s="10" t="s">
         <v>507</v>
@@ -16956,22 +16953,22 @@
         <v>508</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F209" s="9" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="G209" s="9" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="H209" s="8">
         <v>400</v>
@@ -16982,22 +16979,22 @@
         <v>508</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F210" s="9" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="G210" s="9" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="H210" s="8">
         <v>400</v>
@@ -17034,22 +17031,22 @@
         <v>492</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F212" s="9" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G212" s="9" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="H212" s="8">
         <v>400</v>
@@ -17069,10 +17066,10 @@
         <v>503</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F213" s="10" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="G213" s="10" t="s">
         <v>501</v>
@@ -17086,22 +17083,22 @@
         <v>499</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="C214" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F214" s="8" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="G214" s="16" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="H214" s="8">
         <v>400</v>
@@ -17124,10 +17121,10 @@
         <v>0</v>
       </c>
       <c r="F215" s="10" t="s">
-        <v>1577</v>
+        <v>1572</v>
       </c>
       <c r="G215" s="10" t="s">
-        <v>1576</v>
+        <v>1571</v>
       </c>
       <c r="H215">
         <v>200</v>
@@ -17147,19 +17144,19 @@
         <v>514</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
       <c r="G216" s="10" t="s">
-        <v>1579</v>
+        <v>1574</v>
       </c>
       <c r="H216">
         <v>200</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>515</v>
       </c>
@@ -17176,10 +17173,10 @@
         <v>0</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="G217" s="10" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="H217">
         <v>200</v>
@@ -17187,48 +17184,48 @@
     </row>
     <row r="218" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B218" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D218" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F218" s="10" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G218" s="10" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F218" s="10" t="s">
-        <v>1584</v>
-      </c>
-      <c r="G218" s="10" t="s">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>1449</v>
+        <v>1581</v>
       </c>
       <c r="G219" s="10" t="s">
-        <v>527</v>
+        <v>1580</v>
       </c>
       <c r="H219">
         <v>200</v>
@@ -17236,25 +17233,25 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C220" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F220" s="8" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="G220" s="16" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="H220" s="8">
         <v>400</v>
@@ -17262,25 +17259,25 @@
     </row>
     <row r="221" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B221" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="G221" s="10" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H221">
         <v>200</v>
@@ -17288,10 +17285,10 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="C222" s="8" t="s">
         <v>26</v>
@@ -17303,10 +17300,10 @@
         <v>0</v>
       </c>
       <c r="F222" s="8" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="H222" s="8">
         <v>400</v>
@@ -17314,25 +17311,25 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="C223" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F223" s="8" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="G223" s="8" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="H223" s="8">
         <v>400</v>
@@ -17340,25 +17337,25 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="C224" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F224" s="8" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="G224" s="8" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="H224" s="8">
         <v>400</v>
@@ -17366,25 +17363,25 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="C225" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="E225" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F225" s="8" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="G225" s="8" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="H225" s="8">
         <v>400</v>
@@ -17392,25 +17389,25 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="E226" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F226" s="8" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="G226" s="8" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="H226" s="8">
         <v>400</v>
@@ -17418,25 +17415,25 @@
     </row>
     <row r="227" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B227" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F227" s="10" t="s">
-        <v>1572</v>
+        <v>1567</v>
       </c>
       <c r="G227" s="10" t="s">
-        <v>1573</v>
+        <v>1568</v>
       </c>
       <c r="H227">
         <v>200</v>
@@ -17444,25 +17441,25 @@
     </row>
     <row r="228" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B228" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F228" s="10" t="s">
-        <v>1566</v>
+        <v>1561</v>
       </c>
       <c r="G228" s="10" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="H228">
         <v>200</v>
@@ -17470,25 +17467,25 @@
     </row>
     <row r="229" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B229" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="G229" s="10" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="H229">
         <v>200</v>
@@ -17496,25 +17493,25 @@
     </row>
     <row r="230" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B230" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="G230" s="10" t="s">
-        <v>1574</v>
+        <v>1569</v>
       </c>
       <c r="H230">
         <v>200</v>
@@ -17522,25 +17519,25 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C231" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="G231" s="16" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="H231" s="8">
         <v>400</v>
@@ -17548,25 +17545,25 @@
     </row>
     <row r="232" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B232" t="s">
         <v>557</v>
-      </c>
-      <c r="B232" t="s">
-        <v>561</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F232" s="10" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G232" s="10" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H232">
         <v>200</v>
@@ -17574,25 +17571,25 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C233" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="E233" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F233" s="8" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="G233" s="8" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="H233" s="8">
         <v>400</v>
@@ -17600,25 +17597,25 @@
     </row>
     <row r="234" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="C234" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D234" s="8" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E234" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F234" s="8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G234" s="8" t="s">
         <v>1273</v>
-      </c>
-      <c r="E234" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F234" s="8" t="s">
-        <v>1275</v>
-      </c>
-      <c r="G234" s="8" t="s">
-        <v>1277</v>
       </c>
       <c r="H234" s="8">
         <v>400</v>
@@ -17626,25 +17623,25 @@
     </row>
     <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C235" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="E235" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F235" s="8" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="G235" s="8" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="H235" s="8">
         <v>400</v>
@@ -17652,25 +17649,25 @@
     </row>
     <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B236" s="8" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="C236" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="E236" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F236" s="8" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="G236" s="8" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="H236" s="8">
         <v>400</v>
@@ -17678,25 +17675,25 @@
     </row>
     <row r="237" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B237" s="8" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="C237" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="E237" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F237" s="8" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="G237" s="8" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="H237" s="8">
         <v>400</v>
@@ -17704,25 +17701,25 @@
     </row>
     <row r="238" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B238" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F238" s="10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G238" s="10" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H238">
         <v>200</v>
@@ -17730,25 +17727,25 @@
     </row>
     <row r="239" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B239" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F239" s="10" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G239" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H239">
         <v>200</v>
@@ -17756,16 +17753,16 @@
     </row>
     <row r="240" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B240" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>0</v>
@@ -17774,7 +17771,7 @@
         <v>143</v>
       </c>
       <c r="G240" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H240">
         <v>200</v>
@@ -17782,25 +17779,25 @@
     </row>
     <row r="241" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F241" s="9" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G241" s="9" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="H241" s="8">
         <v>400</v>
@@ -17808,25 +17805,25 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="C242" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="E242" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F242" s="8" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="G242" s="8" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="H242" s="8">
         <v>400</v>
@@ -17834,25 +17831,25 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="C243" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="E243" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="G243" s="8" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="H243" s="8">
         <v>400</v>
@@ -17860,25 +17857,25 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="C244" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="E244" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="G244" s="8" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="H244" s="8">
         <v>400</v>
@@ -17886,25 +17883,25 @@
     </row>
     <row r="245" spans="1:8" ht="405" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B245" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G245" s="10" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H245">
         <v>200</v>
@@ -17912,25 +17909,25 @@
     </row>
     <row r="246" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F246" s="9" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G246" s="9" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="H246" s="8">
         <v>400</v>
@@ -17938,25 +17935,25 @@
     </row>
     <row r="247" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B247" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D247" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F247" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="E247" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F247" s="10" t="s">
-        <v>598</v>
-      </c>
       <c r="G247" s="10" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H247">
         <v>200</v>
@@ -17964,25 +17961,25 @@
     </row>
     <row r="248" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B248" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F248" s="10" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G248" s="10" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H248">
         <v>200</v>
@@ -17990,25 +17987,25 @@
     </row>
     <row r="249" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F249" s="9" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G249" s="9" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="H249" s="8">
         <v>400</v>
@@ -18016,25 +18013,25 @@
     </row>
     <row r="250" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B250" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G250" s="10" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="H250">
         <v>200</v>
@@ -18042,25 +18039,25 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F251" s="8" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="G251" s="8" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="H251" s="8">
         <v>400</v>
@@ -18068,25 +18065,25 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="C252" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D252" s="8" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F252" s="8" t="s">
         <v>1307</v>
       </c>
-      <c r="E252" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F252" s="8" t="s">
-        <v>1311</v>
-      </c>
       <c r="G252" s="8" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="H252" s="8">
         <v>400</v>
@@ -18094,25 +18091,25 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F253" s="8" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="G253" s="8" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H253" s="8">
         <v>400</v>
@@ -18120,22 +18117,22 @@
     </row>
     <row r="254" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B254" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F254" s="10" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="H254">
         <v>200</v>
@@ -18143,25 +18140,25 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="G255" s="8" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="H255" s="8">
         <v>400</v>
@@ -18169,25 +18166,25 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C256" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F256" s="8" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="G256" s="8" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="H256" s="8">
         <v>400</v>
@@ -18195,25 +18192,25 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="C257" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F257" s="8" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="G257" s="8" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="H257" s="8">
         <v>400</v>
@@ -18221,25 +18218,25 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="C258" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F258" s="8" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="G258" s="8" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="H258" s="8">
         <v>400</v>
@@ -18247,25 +18244,25 @@
     </row>
     <row r="259" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B259" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F259" s="10" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="G259" s="10" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="H259">
         <v>200</v>
@@ -18273,25 +18270,25 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="C260" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D260" s="8" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E260" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F260" s="8" t="s">
         <v>1323</v>
       </c>
-      <c r="E260" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F260" s="8" t="s">
-        <v>1327</v>
-      </c>
       <c r="G260" s="8" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="H260" s="8">
         <v>400</v>
@@ -18299,25 +18296,25 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="E261" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="G261" s="8" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="H261" s="8">
         <v>400</v>
@@ -18325,25 +18322,25 @@
     </row>
     <row r="262" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B262" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F262" s="10" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G262" s="10" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="H262">
         <v>200</v>
@@ -18351,25 +18348,25 @@
     </row>
     <row r="263" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="E263" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="G263" s="8" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="H263" s="8">
         <v>400</v>
@@ -18377,25 +18374,25 @@
     </row>
     <row r="264" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="C264" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="E264" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F264" s="8" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="G264" s="8" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="H264" s="8">
         <v>400</v>
@@ -18403,25 +18400,25 @@
     </row>
     <row r="265" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>619</v>
+      </c>
+      <c r="B265" t="s">
         <v>623</v>
-      </c>
-      <c r="B265" t="s">
-        <v>627</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G265" s="10" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="H265">
         <v>200</v>
@@ -18429,25 +18426,25 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="C266" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="E266" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F266" s="9" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="G266" s="9" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="H266" s="8">
         <v>400</v>
@@ -18455,25 +18452,25 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C267" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="E267" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F267" s="9" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="G267" s="9" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="H267" s="8">
         <v>400</v>
@@ -18481,25 +18478,25 @@
     </row>
     <row r="268" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B268" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F268" s="10" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G268" s="10" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="H268">
         <v>200</v>
@@ -18507,25 +18504,25 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="C269" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="E269" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F269" s="8" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="G269" s="8" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="H269" s="8">
         <v>400</v>
@@ -18533,25 +18530,25 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="C270" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="E270" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F270" s="8" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="G270" s="8" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="H270" s="8">
         <v>400</v>
@@ -18559,25 +18556,25 @@
     </row>
     <row r="271" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B271" t="s">
         <v>638</v>
-      </c>
-      <c r="B271" t="s">
-        <v>642</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F271" s="10" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G271" s="10" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H271">
         <v>200</v>
@@ -18585,25 +18582,25 @@
     </row>
     <row r="272" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F272" s="9" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="G272" s="9" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="H272" s="8">
         <v>400</v>
@@ -18611,25 +18608,25 @@
     </row>
     <row r="273" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B273" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C273" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F273" s="10" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G273" s="10" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="H273">
         <v>200</v>
@@ -18637,25 +18634,25 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="C274" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D274" s="8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E274" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F274" s="8" t="s">
         <v>1360</v>
       </c>
-      <c r="E274" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F274" s="8" t="s">
-        <v>1364</v>
-      </c>
       <c r="G274" s="8" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="H274" s="8">
         <v>400</v>
@@ -18663,25 +18660,25 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="C275" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="E275" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F275" s="8" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="G275" s="8" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H275" s="8">
         <v>400</v>
@@ -18689,22 +18686,22 @@
     </row>
     <row r="276" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G276" s="2"/>
       <c r="H276">
@@ -18713,25 +18710,25 @@
     </row>
     <row r="277" spans="1:8" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F277" s="9" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G277" s="9" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="H277" s="8">
         <v>400</v>
@@ -18739,16 +18736,16 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B278" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>259</v>
@@ -18759,25 +18756,25 @@
     </row>
     <row r="279" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B279" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F279" s="10" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G279" s="10" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="H279">
         <v>200</v>
@@ -18785,25 +18782,25 @@
     </row>
     <row r="280" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F280" s="8" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="G280" s="8" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="H280" s="8">
         <v>400</v>
@@ -18811,25 +18808,25 @@
     </row>
     <row r="281" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A281" s="8" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C281" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F281" s="8" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G281" s="8" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="H281" s="8">
         <v>400</v>
@@ -18837,25 +18834,25 @@
     </row>
     <row r="282" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="C282" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="E282" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F282" s="8" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="G282" s="8" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
       <c r="H282" s="8">
         <v>400</v>
@@ -18863,25 +18860,25 @@
     </row>
     <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="8" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
       <c r="C283" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F283" s="8" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
       <c r="G283" s="8" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="H283" s="8">
         <v>400</v>
@@ -18889,25 +18886,25 @@
     </row>
     <row r="284" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B284" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E284" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F284" s="10" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G284" s="10" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="H284">
         <v>200</v>
@@ -18915,16 +18912,16 @@
     </row>
     <row r="285" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>0</v>
@@ -18938,25 +18935,25 @@
     </row>
     <row r="286" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F286" s="9" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="G286" s="9" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="H286" s="8">
         <v>400</v>
@@ -18964,22 +18961,22 @@
     </row>
     <row r="287" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E287" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F287" s="10" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H287">
         <v>200</v>
@@ -18987,22 +18984,22 @@
     </row>
     <row r="288" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E288" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F288" s="10" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="H288">
         <v>200</v>
@@ -19010,22 +19007,22 @@
     </row>
     <row r="289" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F289" s="10" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H289">
         <v>200</v>
@@ -19033,25 +19030,25 @@
     </row>
     <row r="290" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" s="8" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="C290" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="E290" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F290" s="8" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="G290" s="8" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="H290" s="8">
         <v>404</v>
@@ -19059,22 +19056,22 @@
     </row>
     <row r="291" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F291" s="10" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H291">
         <v>200</v>
@@ -19082,25 +19079,25 @@
     </row>
     <row r="292" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
       <c r="E292" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F292" s="10" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="H292">
         <v>200</v>
@@ -19108,22 +19105,22 @@
     </row>
     <row r="293" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E293" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F293" s="10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H293">
         <v>200</v>
@@ -19131,25 +19128,25 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="C294" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="E294" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F294" s="8" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="G294" s="8" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="H294" s="8">
         <v>400</v>
@@ -19157,25 +19154,25 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="8" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="C295" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="E295" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F295" s="8" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="G295" s="8" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="H295" s="8">
         <v>400</v>
@@ -19183,22 +19180,22 @@
     </row>
     <row r="296" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E296" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F296" s="10" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="H296">
         <v>200</v>
@@ -19206,25 +19203,25 @@
     </row>
     <row r="297" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A297" s="8" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C297" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="E297" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F297" s="8" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="G297" s="8" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="H297" s="8">
         <v>400</v>
@@ -19232,25 +19229,25 @@
     </row>
     <row r="298" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C298" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D298" s="8" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E298" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F298" s="8" t="s">
         <v>1432</v>
       </c>
-      <c r="E298" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F298" s="8" t="s">
-        <v>1436</v>
-      </c>
       <c r="G298" s="8" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H298" s="8">
         <v>400</v>
@@ -19258,25 +19255,25 @@
     </row>
     <row r="299" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A299" s="8" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C299" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="E299" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F299" s="8" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="G299" s="8" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="H299" s="8">
         <v>400</v>
@@ -19284,22 +19281,22 @@
     </row>
     <row r="300" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F300" s="10" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="H300">
         <v>200</v>
@@ -19307,22 +19304,22 @@
     </row>
     <row r="301" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E301" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F301" s="10" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="H301">
         <v>200</v>
@@ -19330,19 +19327,19 @@
     </row>
     <row r="302" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B302" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F302" s="10" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="H302">
         <v>200</v>
@@ -19350,19 +19347,19 @@
     </row>
     <row r="303" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D303" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E303" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F303" s="10" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="H303">
         <v>200</v>
@@ -19370,22 +19367,22 @@
     </row>
     <row r="304" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F304" s="10" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="H304">
         <v>200</v>
@@ -19393,22 +19390,22 @@
     </row>
     <row r="305" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B305" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F305" s="10" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H305">
         <v>200</v>
@@ -19416,19 +19413,19 @@
     </row>
     <row r="306" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B306" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F306" s="10" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="H306">
         <v>200</v>
@@ -19436,22 +19433,22 @@
     </row>
     <row r="307" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B307" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D307" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F307" s="10" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="H307">
         <v>200</v>
@@ -19459,22 +19456,22 @@
     </row>
     <row r="308" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F308" s="10" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="H308">
         <v>200</v>
@@ -19482,25 +19479,25 @@
     </row>
     <row r="309" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A309" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="C309" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="E309" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F309" s="8" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="G309" s="8" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H309" s="8">
         <v>400</v>
@@ -19508,25 +19505,25 @@
     </row>
     <row r="310" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="E310" s="8" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F310" s="8" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="G310" s="8" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="H310" s="8">
         <v>404</v>
@@ -19534,25 +19531,25 @@
     </row>
     <row r="311" spans="1:8" s="1" customFormat="1" ht="405" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="E311" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="H311" s="1">
         <v>200</v>
@@ -19560,25 +19557,25 @@
     </row>
     <row r="312" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="C312" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="E312" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F312" s="8" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="G312" s="8" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H312" s="8">
         <v>400</v>
@@ -19586,25 +19583,25 @@
     </row>
     <row r="313" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="8" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
       <c r="C313" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="E313" s="8" t="s">
         <v>0</v>
       </c>
       <c r="F313" s="8" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="G313" s="8" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="H313" s="8">
         <v>400</v>
@@ -19612,22 +19609,22 @@
     </row>
     <row r="314" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B314" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E314" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F314" s="10" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H314">
         <v>200</v>
@@ -19635,25 +19632,25 @@
     </row>
     <row r="315" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B315" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D315" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F315" s="10" t="s">
+        <v>1402</v>
+      </c>
+      <c r="G315" s="1" t="s">
         <v>1407</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F315" s="10" t="s">
-        <v>1406</v>
-      </c>
-      <c r="G315" s="1" t="s">
-        <v>1411</v>
       </c>
       <c r="H315">
         <v>400</v>
@@ -19661,22 +19658,22 @@
     </row>
     <row r="316" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B316" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F316" s="10" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="H316">
         <v>200</v>
@@ -19684,22 +19681,22 @@
     </row>
     <row r="317" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B317" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F317" s="10" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="H317">
         <v>404</v>
@@ -19707,22 +19704,22 @@
     </row>
     <row r="318" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B318" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F318" s="10" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="H318">
         <v>404</v>
@@ -19730,16 +19727,16 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B319" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E319" s="1" t="s">
         <v>259</v>
@@ -19750,25 +19747,25 @@
     </row>
     <row r="320" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B320" t="s">
         <v>766</v>
-      </c>
-      <c r="B320" t="s">
-        <v>770</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F320" s="10" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="G320" s="10" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="H320">
         <v>200</v>
@@ -19776,25 +19773,25 @@
     </row>
     <row r="321" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B321" t="s">
         <v>766</v>
-      </c>
-      <c r="B321" t="s">
-        <v>770</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F321" s="10" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="G321" s="10" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="H321">
         <v>404</v>
@@ -19802,16 +19799,16 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="B322" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>259</v>
@@ -19822,16 +19819,16 @@
     </row>
     <row r="323" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B323" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>0</v>
@@ -19840,7 +19837,7 @@
         <v>143</v>
       </c>
       <c r="G323" s="10" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="H323">
         <v>200</v>
@@ -19848,25 +19845,25 @@
     </row>
     <row r="324" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B324" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F324" s="10" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
       <c r="G324" s="10" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
       <c r="H324">
         <v>404</v>
@@ -19874,22 +19871,22 @@
     </row>
     <row r="325" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B325" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F325" s="10" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="H325">
         <v>200</v>
@@ -19897,22 +19894,22 @@
     </row>
     <row r="326" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B326" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F326" s="10" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="H326">
         <v>400</v>
@@ -19920,22 +19917,22 @@
     </row>
     <row r="327" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B327" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E327" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F327" s="10" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="H327">
         <v>200</v>
@@ -19943,22 +19940,22 @@
     </row>
     <row r="328" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B328" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F328" s="10" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="H328" s="17">
         <v>404</v>
@@ -19966,16 +19963,16 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B329" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>259</v>
@@ -19986,42 +19983,42 @@
     </row>
     <row r="330" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B330" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F330" s="10" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="331" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B331" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F331" s="10" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="H331">
         <v>200</v>
@@ -20029,22 +20026,22 @@
     </row>
     <row r="332" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B332" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F332" s="10" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="H332">
         <v>400</v>
@@ -20052,22 +20049,22 @@
     </row>
     <row r="333" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B333" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F333" s="10" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="H333">
         <v>200</v>
@@ -20075,22 +20072,22 @@
     </row>
     <row r="334" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B334" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F334" s="10" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="H334">
         <v>404</v>
@@ -20098,22 +20095,22 @@
     </row>
     <row r="335" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B335" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="F335" s="10" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="H335">
         <v>400</v>
@@ -20121,25 +20118,25 @@
     </row>
     <row r="336" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="B336" t="s">
-        <v>1494</v>
+        <v>1489</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>1495</v>
+        <v>1490</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F336" s="10" t="s">
-        <v>1502</v>
+        <v>1497</v>
       </c>
       <c r="G336" s="10" t="s">
-        <v>1493</v>
+        <v>1488</v>
       </c>
       <c r="H336">
         <v>200</v>
@@ -20147,25 +20144,25 @@
     </row>
     <row r="337" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B337" t="s">
         <v>1491</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1496</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1497</v>
+        <v>1492</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F337" s="10" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="G337" s="10" t="s">
-        <v>1498</v>
+        <v>1493</v>
       </c>
       <c r="H337">
         <v>400</v>
@@ -20173,25 +20170,25 @@
     </row>
     <row r="338" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>1491</v>
+        <v>1486</v>
       </c>
       <c r="B338" t="s">
-        <v>1500</v>
+        <v>1495</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1501</v>
+        <v>1496</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F338" s="10" t="s">
-        <v>1503</v>
+        <v>1498</v>
       </c>
       <c r="G338" s="10" t="s">
-        <v>1499</v>
+        <v>1494</v>
       </c>
       <c r="H338">
         <v>404</v>
@@ -20199,25 +20196,25 @@
     </row>
     <row r="339" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="B339" t="s">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1510</v>
+        <v>1505</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F339" s="10" t="s">
-        <v>1511</v>
+        <v>1506</v>
       </c>
       <c r="G339" s="10" t="s">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="H339">
         <v>200</v>
@@ -20225,25 +20222,25 @@
     </row>
     <row r="340" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B340" t="s">
         <v>1508</v>
-      </c>
-      <c r="B340" t="s">
-        <v>1513</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F340" s="10" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="G340" s="10" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="H340">
         <v>404</v>
@@ -20251,25 +20248,25 @@
     </row>
     <row r="341" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="B341" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F341" s="10" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="G341" s="10" t="s">
-        <v>1520</v>
+        <v>1515</v>
       </c>
       <c r="H341">
         <v>200</v>
@@ -20277,25 +20274,25 @@
     </row>
     <row r="342" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="B342" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F342" s="10" t="s">
-        <v>1526</v>
+        <v>1521</v>
       </c>
       <c r="G342" s="10" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="H342">
         <v>400</v>
@@ -20303,25 +20300,25 @@
     </row>
     <row r="343" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="B343" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1528</v>
+        <v>1523</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F343" s="10" t="s">
-        <v>1529</v>
+        <v>1524</v>
       </c>
       <c r="G343" s="10" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="H343">
         <v>400</v>
@@ -20329,16 +20326,16 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>1530</v>
+        <v>1525</v>
       </c>
       <c r="B344" t="s">
-        <v>1531</v>
+        <v>1526</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1532</v>
+        <v>1527</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>259</v>
@@ -20350,25 +20347,25 @@
     </row>
     <row r="345" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="B345" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F345" s="10" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="G345" s="10" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="H345">
         <v>200</v>
@@ -20376,25 +20373,25 @@
     </row>
     <row r="346" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B346" t="s">
         <v>1535</v>
-      </c>
-      <c r="B346" t="s">
-        <v>1540</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F346" s="10" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="G346" s="10" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="H346">
         <v>400</v>
@@ -20402,25 +20399,25 @@
     </row>
     <row r="347" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="B347" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F347" s="10" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="G347" s="10" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="H347">
         <v>400</v>
@@ -20428,25 +20425,25 @@
     </row>
     <row r="348" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="B348" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F348" s="10" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="G348" s="10" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="H348">
         <v>200</v>
@@ -20454,25 +20451,25 @@
     </row>
     <row r="349" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="B349" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F349" s="10" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="G349" s="10" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="H349">
         <v>400</v>
@@ -20480,25 +20477,25 @@
     </row>
     <row r="350" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="B350" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="F350" s="10" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="G350" s="10" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="H350">
         <v>400</v>

--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="commonAPI" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="1516">
   <si>
     <t>post</t>
   </si>
@@ -8321,7 +8321,20 @@
 }</t>
   </si>
   <si>
-    <t>{{
+    <t>{
+  "data": [
+    {
+      "section_id": 17,
+      "section_n+G39ame": "Top",
+      "table_count": 19,
+      "occupied_table_count": 2,
+      "remaining_table_count": 17
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
   "data": [
     {
       "section_id": 17,
@@ -8786,8 +8799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9032,7 +9045,7 @@
         <v>1513</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="F12" s="1">
         <v>200</v>
@@ -11293,7 +11306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="D25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>

--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="1510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="1546">
   <si>
     <t>post</t>
   </si>
@@ -8322,6 +8322,211 @@
     "section_id":69,
   "app_source":"owner_app"
 }</t>
+  </si>
+  <si>
+    <t>warehousecreate</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/common/create_warehouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "user_id": 2,
+  "app_source": "captain_app",
+  "location": "Katraj",
+  "address": "Ground Floor, East Wing, Hotel Plaza, MG Road, Mumbai",
+  "manager_name": "Priya Sharma",
+  "manager_mobile": "9876543210",
+  "manager_alternate_mobile": "9123456780",
+  "warehouse_type": "Kitchen Supplies",
+  "capacity_unit": "kg",
+  "capacity_value": 2000,
+ "is_active":1
+}
+</t>
+  </si>
+  <si>
+    <t>{
+  "detail": "Warehouse created successfully"
+}</t>
+  </si>
+  <si>
+    <t>warehouseupdate</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/common/update_warehouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "user_id": 2,
+  "warehouse_id": 10,
+  "app_source": "captain_app",
+  "location": "Katraj",
+  "address": "Ground Floor, East Wing, Hotel Plaza, MG Road, Mumbai",
+  "manager_name": "Pooja Sharma",
+  "manager_mobile": "8876543210",
+  "manager_alternate_mobile": "9223456780",
+  "warehouse_type": "Kitchen Supplies",
+  "capacity_unit": "kg",
+  "capacity_value": 5000,
+  "is_active":1
+}
+</t>
+  </si>
+  <si>
+    <t>{
+  "detail": "Warehouse updated successfully"
+}</t>
+  </si>
+  <si>
+    <t>warehouselist</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/common/list_warehouses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "user_id": 2,
+  "app_source": "captain_app"
+}
+</t>
+  </si>
+  <si>
+    <t>{
+        "warehouse_id": 16,
+        "location": "Katraj",
+        "manager_name": "Priya Sharma",
+        "warehouse_type": "Kitchen Supplies",
+        "capacity_value": 2000,
+        "capacity_unit": "kg",
+        "is_active": true
+      }</t>
+  </si>
+  <si>
+    <t>warehouseview</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/common/view_warehouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "user_id": 2,
+  "app_source": "captain_app",
+  "warehouse_id": 10
+}
+</t>
+  </si>
+  <si>
+    <t>{
+  "detail": "Warehouse details retrieved successfully",
+  "data": {
+    "warehouse_id": 1,
+    "location": "Katraj",
+    "address": "Ground Floor, East Wing, Hotel Plaza, MG Road, Mumbai",
+    "manager_name": "Pooja Sharma",
+    "manager_mobile": "8876543210",
+    "manager_alternate_mobile": "9223456780",
+    "warehouse_type": "Kitchen Supplies",
+    "capacity_unit": "kg",
+    "capacity_value": 5000,
+    "is_active": true
+  }
+}</t>
+  </si>
+  <si>
+    <t>warehousedelete</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/common/delete_warehouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "user_id": 2,
+  "app_source": "captain_app",
+  "warehouse_id": 7
+}
+</t>
+  </si>
+  <si>
+    <t>{
+  "detail": "Warehouse deleted successfully"
+}</t>
+  </si>
+  <si>
+    <t>warehousecreate_001</t>
+  </si>
+  <si>
+    <t>WareHouse Created Successfully</t>
+  </si>
+  <si>
+    <t>warehousecreate_002</t>
+  </si>
+  <si>
+    <t>Verify App Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"detail":"app_source  is required."}</t>
+  </si>
+  <si>
+    <t>warehouseupdate_001</t>
+  </si>
+  <si>
+    <t>warehouseupdate_002</t>
+  </si>
+  <si>
+    <t>{"detail":"app_source  is required."}</t>
+  </si>
+  <si>
+    <t>warehouselist_001</t>
+  </si>
+  <si>
+    <t>Verify User ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+        "warehouse_id": 16,
+        "location": "Katraj",
+        "manager_name": "Priya Sharma",
+        "warehouse_type": "Kitchen Supplies",
+        "capacity_value": 2000,
+        "capacity_unit": "kg",
+        "is_active": true
+      }
+</t>
+  </si>
+  <si>
+    <t>warehouseview_001</t>
+  </si>
+  <si>
+    <t>warehousedelete_001</t>
+  </si>
+  <si>
+    <t>Verify Warehouse ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "user_id": 2,
+  "app_source": "captain_app",
+  "warehouse_id": 7
+}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "user_id": 2,
+  "warehouse_id": 1,
+  "app_source": "captain_app",
+  "location": "Katraj",
+  "address": "Ground Floor, East Wing, Hotel Plaza, MG Road, Mumbai",
+  "manager_name": "Pooja Sharma",
+  "manager_mobile": "8876543210",
+  "manager_alternate_mobile": "9223456780",
+  "warehouse_type": "Kitchen Supplies",
+  "capacity_unit": "kg",
+  "capacity_value": 5000,
+  "is_active":1
+}
+</t>
   </si>
 </sst>
 </file>
@@ -8774,10 +8979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8785,7 +8990,7 @@
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
@@ -11089,6 +11294,94 @@
         <v>1458</v>
       </c>
       <c r="F124" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E125" s="10" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F125">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="405" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F126" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="315" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F128" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F129">
         <v>200</v>
       </c>
     </row>
@@ -11208,9 +11501,14 @@
     <hyperlink ref="C71" r:id="rId112"/>
     <hyperlink ref="C73" r:id="rId113"/>
     <hyperlink ref="C11" r:id="rId114"/>
+    <hyperlink ref="C125" r:id="rId115"/>
+    <hyperlink ref="C126" r:id="rId116"/>
+    <hyperlink ref="C127" r:id="rId117"/>
+    <hyperlink ref="C128" r:id="rId118"/>
+    <hyperlink ref="C129" r:id="rId119"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId115"/>
+  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId120"/>
 </worksheet>
 </file>
 
@@ -11282,10 +11580,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H334"/>
+  <dimension ref="A1:H341"/>
   <sheetViews>
-    <sheetView topLeftCell="C26" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A334" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F335" sqref="F335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19796,6 +20094,188 @@
       </c>
       <c r="H334">
         <v>400</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F335" s="10" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G335" s="10" t="s">
+        <v>1513</v>
+      </c>
+      <c r="H335">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F336" s="10" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G336" s="10" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H336">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F337" s="10" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G337" s="10" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H337" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F338" s="10" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G338" s="10" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H338">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F339" s="10" t="s">
+        <v>1520</v>
+      </c>
+      <c r="G339" s="10" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H339">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F340" s="10" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G340" s="10" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H340">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F341" s="10" t="s">
+        <v>1544</v>
+      </c>
+      <c r="G341" s="10" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H341">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="commonAPI" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="1546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="1542">
   <si>
     <t>post</t>
   </si>
@@ -8459,22 +8459,10 @@
     <t>WareHouse Created Successfully</t>
   </si>
   <si>
-    <t>warehousecreate_002</t>
-  </si>
-  <si>
     <t>Verify App Source</t>
   </si>
   <si>
-    <t xml:space="preserve"> {"detail":"app_source  is required."}</t>
-  </si>
-  <si>
     <t>warehouseupdate_001</t>
-  </si>
-  <si>
-    <t>warehouseupdate_002</t>
-  </si>
-  <si>
-    <t>{"detail":"app_source  is required."}</t>
   </si>
   <si>
     <t>warehouselist_001</t>
@@ -8981,8 +8969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView topLeftCell="A126" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11297,7 +11285,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="390" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="255" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1510</v>
       </c>
@@ -11325,7 +11313,7 @@
         <v>1515</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>1517</v>
@@ -11580,10 +11568,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H341"/>
+  <dimension ref="A1:H339"/>
   <sheetViews>
-    <sheetView topLeftCell="A334" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F335" sqref="F335"/>
+    <sheetView tabSelected="1" topLeftCell="A335" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A337" sqref="A337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20122,87 +20110,87 @@
         <v>200</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="B336" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D336" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="C336" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>1533</v>
-      </c>
       <c r="E336" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F336" s="10" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="G336" s="10" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H336" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B337" t="s">
         <v>1534</v>
-      </c>
-      <c r="H336">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" ht="225" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1535</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F337" s="10" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="G337" s="10" t="s">
-        <v>1517</v>
-      </c>
-      <c r="H337" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+        <v>1536</v>
+      </c>
+      <c r="H337">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>1514</v>
+        <v>1522</v>
       </c>
       <c r="B338" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F338" s="10" t="s">
-        <v>1516</v>
+        <v>1524</v>
       </c>
       <c r="G338" s="10" t="s">
-        <v>1537</v>
+        <v>1525</v>
       </c>
       <c r="H338">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>1518</v>
+        <v>1526</v>
       </c>
       <c r="B339" t="s">
         <v>1538</v>
@@ -20217,64 +20205,12 @@
         <v>0</v>
       </c>
       <c r="F339" s="10" t="s">
-        <v>1520</v>
+        <v>1540</v>
       </c>
       <c r="G339" s="10" t="s">
-        <v>1540</v>
+        <v>1529</v>
       </c>
       <c r="H339">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" ht="255" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B340" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>1539</v>
-      </c>
-      <c r="E340" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F340" s="10" t="s">
-        <v>1524</v>
-      </c>
-      <c r="G340" s="10" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H340">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B341" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>1543</v>
-      </c>
-      <c r="E341" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F341" s="10" t="s">
-        <v>1544</v>
-      </c>
-      <c r="G341" s="10" t="s">
-        <v>1529</v>
-      </c>
-      <c r="H341">
         <v>200</v>
       </c>
     </row>

--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="1542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2873" uniqueCount="1510">
   <si>
     <t>post</t>
   </si>
@@ -8322,199 +8322,6 @@
     "section_id":69,
   "app_source":"owner_app"
 }</t>
-  </si>
-  <si>
-    <t>warehousecreate</t>
-  </si>
-  <si>
-    <t>https://men4u.xyz/v2/common/create_warehouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "user_id": 2,
-  "app_source": "captain_app",
-  "location": "Katraj",
-  "address": "Ground Floor, East Wing, Hotel Plaza, MG Road, Mumbai",
-  "manager_name": "Priya Sharma",
-  "manager_mobile": "9876543210",
-  "manager_alternate_mobile": "9123456780",
-  "warehouse_type": "Kitchen Supplies",
-  "capacity_unit": "kg",
-  "capacity_value": 2000,
- "is_active":1
-}
-</t>
-  </si>
-  <si>
-    <t>{
-  "detail": "Warehouse created successfully"
-}</t>
-  </si>
-  <si>
-    <t>warehouseupdate</t>
-  </si>
-  <si>
-    <t>https://men4u.xyz/v2/common/update_warehouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "user_id": 2,
-  "warehouse_id": 10,
-  "app_source": "captain_app",
-  "location": "Katraj",
-  "address": "Ground Floor, East Wing, Hotel Plaza, MG Road, Mumbai",
-  "manager_name": "Pooja Sharma",
-  "manager_mobile": "8876543210",
-  "manager_alternate_mobile": "9223456780",
-  "warehouse_type": "Kitchen Supplies",
-  "capacity_unit": "kg",
-  "capacity_value": 5000,
-  "is_active":1
-}
-</t>
-  </si>
-  <si>
-    <t>{
-  "detail": "Warehouse updated successfully"
-}</t>
-  </si>
-  <si>
-    <t>warehouselist</t>
-  </si>
-  <si>
-    <t>https://men4u.xyz/v2/common/list_warehouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "user_id": 2,
-  "app_source": "captain_app"
-}
-</t>
-  </si>
-  <si>
-    <t>{
-        "warehouse_id": 16,
-        "location": "Katraj",
-        "manager_name": "Priya Sharma",
-        "warehouse_type": "Kitchen Supplies",
-        "capacity_value": 2000,
-        "capacity_unit": "kg",
-        "is_active": true
-      }</t>
-  </si>
-  <si>
-    <t>warehouseview</t>
-  </si>
-  <si>
-    <t>https://men4u.xyz/v2/common/view_warehouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "user_id": 2,
-  "app_source": "captain_app",
-  "warehouse_id": 10
-}
-</t>
-  </si>
-  <si>
-    <t>{
-  "detail": "Warehouse details retrieved successfully",
-  "data": {
-    "warehouse_id": 1,
-    "location": "Katraj",
-    "address": "Ground Floor, East Wing, Hotel Plaza, MG Road, Mumbai",
-    "manager_name": "Pooja Sharma",
-    "manager_mobile": "8876543210",
-    "manager_alternate_mobile": "9223456780",
-    "warehouse_type": "Kitchen Supplies",
-    "capacity_unit": "kg",
-    "capacity_value": 5000,
-    "is_active": true
-  }
-}</t>
-  </si>
-  <si>
-    <t>warehousedelete</t>
-  </si>
-  <si>
-    <t>https://men4u.xyz/v2/common/delete_warehouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "user_id": 2,
-  "app_source": "captain_app",
-  "warehouse_id": 7
-}
-</t>
-  </si>
-  <si>
-    <t>{
-  "detail": "Warehouse deleted successfully"
-}</t>
-  </si>
-  <si>
-    <t>warehousecreate_001</t>
-  </si>
-  <si>
-    <t>WareHouse Created Successfully</t>
-  </si>
-  <si>
-    <t>Verify App Source</t>
-  </si>
-  <si>
-    <t>warehouseupdate_001</t>
-  </si>
-  <si>
-    <t>warehouselist_001</t>
-  </si>
-  <si>
-    <t>Verify User ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-        "warehouse_id": 16,
-        "location": "Katraj",
-        "manager_name": "Priya Sharma",
-        "warehouse_type": "Kitchen Supplies",
-        "capacity_value": 2000,
-        "capacity_unit": "kg",
-        "is_active": true
-      }
-</t>
-  </si>
-  <si>
-    <t>warehouseview_001</t>
-  </si>
-  <si>
-    <t>warehousedelete_001</t>
-  </si>
-  <si>
-    <t>Verify Warehouse ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "user_id": 2,
-  "app_source": "captain_app",
-  "warehouse_id": 7
-}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "user_id": 2,
-  "warehouse_id": 1,
-  "app_source": "captain_app",
-  "location": "Katraj",
-  "address": "Ground Floor, East Wing, Hotel Plaza, MG Road, Mumbai",
-  "manager_name": "Pooja Sharma",
-  "manager_mobile": "8876543210",
-  "manager_alternate_mobile": "9223456780",
-  "warehouse_type": "Kitchen Supplies",
-  "capacity_unit": "kg",
-  "capacity_value": 5000,
-  "is_active":1
-}
-</t>
   </si>
 </sst>
 </file>
@@ -8969,8 +8776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView topLeftCell="A124" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11285,93 +11092,34 @@
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="255" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>1512</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>1513</v>
-      </c>
-      <c r="F125">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="405" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>1541</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>1517</v>
-      </c>
-      <c r="F126" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="165" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C127" s="14" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D127" s="10" t="s">
-        <v>1520</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="315" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F128" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="120" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>1527</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>1528</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>1529</v>
-      </c>
-      <c r="F129">
-        <v>200</v>
-      </c>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C125" s="14"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="1"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="1"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C128" s="14"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C129" s="14"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11489,14 +11237,9 @@
     <hyperlink ref="C71" r:id="rId112"/>
     <hyperlink ref="C73" r:id="rId113"/>
     <hyperlink ref="C11" r:id="rId114"/>
-    <hyperlink ref="C125" r:id="rId115"/>
-    <hyperlink ref="C126" r:id="rId116"/>
-    <hyperlink ref="C127" r:id="rId117"/>
-    <hyperlink ref="C128" r:id="rId118"/>
-    <hyperlink ref="C129" r:id="rId119"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId120"/>
+  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId115"/>
 </worksheet>
 </file>
 
@@ -11570,15 +11313,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A337" sqref="A337"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="172" bestFit="1" customWidth="1"/>
@@ -20084,135 +19827,46 @@
         <v>400</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E335" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F335" s="10" t="s">
-        <v>1512</v>
-      </c>
-      <c r="G335" s="10" t="s">
-        <v>1513</v>
-      </c>
-      <c r="H335">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" ht="225" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D336" s="1" t="s">
-        <v>1532</v>
-      </c>
-      <c r="E336" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F336" s="10" t="s">
-        <v>1516</v>
-      </c>
-      <c r="G336" s="10" t="s">
-        <v>1517</v>
-      </c>
-      <c r="H336" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F337" s="10" t="s">
-        <v>1520</v>
-      </c>
-      <c r="G337" s="10" t="s">
-        <v>1536</v>
-      </c>
-      <c r="H337">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" ht="255" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B338" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>1535</v>
-      </c>
-      <c r="E338" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F338" s="10" t="s">
-        <v>1524</v>
-      </c>
-      <c r="G338" s="10" t="s">
-        <v>1525</v>
-      </c>
-      <c r="H338">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B339" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>1539</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F339" s="10" t="s">
-        <v>1540</v>
-      </c>
-      <c r="G339" s="10" t="s">
-        <v>1529</v>
-      </c>
-      <c r="H339">
-        <v>200</v>
-      </c>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="10"/>
+      <c r="G335" s="10"/>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="10"/>
+      <c r="G336" s="10"/>
+      <c r="H336" s="10"/>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="10"/>
+      <c r="G337" s="10"/>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="10"/>
+      <c r="G338" s="10"/>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" s="10"/>
+      <c r="G339" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="commonAPI" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2743" uniqueCount="1447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="1452">
   <si>
     <t>post</t>
   </si>
@@ -8085,6 +8085,26 @@
     <t>{
     "detail": "Waiter updated successfully"
 }</t>
+  </si>
+  <si>
+    <t>ubaccreate</t>
+  </si>
+  <si>
+    <t>ubaccreate_001</t>
+  </si>
+  <si>
+    <t>{
+    "functionality_id":2,
+    "user_id":2
+}</t>
+  </si>
+  <si>
+    <t>{
+    "detail": "User functionality created successfully"
+}</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/common/create_ubac_user_functionalities</t>
   </si>
 </sst>
 </file>
@@ -8539,8 +8559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10895,11 +10915,23 @@
         <v>200</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>1447</v>
+      </c>
       <c r="B127" s="1"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
+      <c r="C127" s="14" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F127">
+        <v>200</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C128" s="14"/>
@@ -11030,9 +11062,10 @@
     <hyperlink ref="C11" r:id="rId114"/>
     <hyperlink ref="C125" r:id="rId115"/>
     <hyperlink ref="C126" r:id="rId116"/>
+    <hyperlink ref="C127" r:id="rId117"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId117"/>
+  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId118"/>
 </worksheet>
 </file>
 
@@ -11106,8 +11139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F170" sqref="F170"/>
+    <sheetView topLeftCell="D312" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I315" sqref="I315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19100,13 +19133,31 @@
         <v>200</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A315" s="1"/>
-      <c r="C315" s="1"/>
-      <c r="D315" s="1"/>
-      <c r="E315" s="1"/>
-      <c r="F315" s="10"/>
-      <c r="G315" s="10"/>
+    <row r="315" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F315" s="10" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G315" s="10" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H315">
+        <v>200</v>
+      </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>

--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="1452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="1457">
   <si>
     <t>post</t>
   </si>
@@ -8105,6 +8105,32 @@
   </si>
   <si>
     <t>https://men4u.xyz/v2/common/create_ubac_user_functionalities</t>
+  </si>
+  <si>
+    <t>ubaclistview</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/common/view_ubac_user_functionality_mapping</t>
+  </si>
+  <si>
+    <t>{
+    "functionality_name":"manage_menu"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "functionality_name": "manage_menu",
+    "assigned_users": [
+        {
+            "user_id": 2,
+            "name": "Heenann",
+            "role": "owner"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>ubaclistview_001</t>
   </si>
 </sst>
 </file>
@@ -8559,8 +8585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10933,11 +10959,25 @@
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C128" s="14"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="1"/>
+    <row r="128" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F128" s="1">
+        <v>200</v>
+      </c>
     </row>
     <row r="129" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C129" s="14"/>
@@ -11063,9 +11103,10 @@
     <hyperlink ref="C125" r:id="rId115"/>
     <hyperlink ref="C126" r:id="rId116"/>
     <hyperlink ref="C127" r:id="rId117"/>
+    <hyperlink ref="C128" r:id="rId118"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId118"/>
+  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId119"/>
 </worksheet>
 </file>
 
@@ -11139,8 +11180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H317"/>
   <sheetViews>
-    <sheetView topLeftCell="D312" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I315" sqref="I315"/>
+    <sheetView topLeftCell="E313" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J316" sqref="J316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19159,13 +19200,31 @@
         <v>200</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A316" s="1"/>
-      <c r="C316" s="1"/>
-      <c r="D316" s="1"/>
-      <c r="E316" s="1"/>
-      <c r="F316" s="10"/>
-      <c r="G316" s="10"/>
+    <row r="316" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F316" s="10" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G316" s="10" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H316">
+        <v>200</v>
+      </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>

--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="commonAPI" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="1456">
   <si>
     <t>post</t>
   </si>
@@ -8107,9 +8107,6 @@
     <t>https://men4u.xyz/v2/common/create_ubac_user_functionalities</t>
   </si>
   <si>
-    <t>ubaclistview</t>
-  </si>
-  <si>
     <t>https://men4u.xyz/v2/common/view_ubac_user_functionality_mapping</t>
   </si>
   <si>
@@ -8130,7 +8127,7 @@
 }</t>
   </si>
   <si>
-    <t>ubaclistview_001</t>
+    <t>ubacview</t>
   </si>
 </sst>
 </file>
@@ -8585,8 +8582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G128" sqref="G128"/>
+    <sheetView topLeftCell="A126" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10961,19 +10958,19 @@
     </row>
     <row r="128" spans="1:6" ht="165" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" s="14" t="s">
         <v>1452</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C128" s="14" t="s">
+      <c r="D128" s="10" t="s">
         <v>1453</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="E128" s="10" t="s">
         <v>1454</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>1455</v>
       </c>
       <c r="F128" s="1">
         <v>200</v>
@@ -11180,8 +11177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H317"/>
   <sheetViews>
-    <sheetView topLeftCell="E313" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J316" sqref="J316"/>
+    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B316" sqref="B316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19202,10 +19199,10 @@
     </row>
     <row r="316" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="B316" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>27</v>
@@ -19217,10 +19214,10 @@
         <v>0</v>
       </c>
       <c r="F316" s="10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G316" s="10" t="s">
         <v>1454</v>
-      </c>
-      <c r="G316" s="10" t="s">
-        <v>1455</v>
       </c>
       <c r="H316">
         <v>200</v>

--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="commonAPI" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2766" uniqueCount="1456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="1462">
   <si>
     <t>post</t>
   </si>
@@ -8128,6 +8128,231 @@
   </si>
   <si>
     <t>ubacview</t>
+  </si>
+  <si>
+    <t>{
+    "role_name":"manager"
+}</t>
+  </si>
+  <si>
+    <t>Verfiy</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/admin/get_ubac_role_functionality_mappings</t>
+  </si>
+  <si>
+    <t>ubacgetlist</t>
+  </si>
+  <si>
+    <t>ubacgetlist_001</t>
+  </si>
+  <si>
+    <t>[
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 4,
+        "functionality_name": "manage_table"
+    },
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 1,
+        "functionality_name": "manage_menu"
+    },
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 2,
+        "functionality_name": "manage_menu_category"
+    },
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 3,
+        "functionality_name": "manage_section"
+    },
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 14,
+        "functionality_name": "manage_partner"
+    },
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 9,
+        "functionality_name": "manage_supplier"
+    },
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 7,
+        "functionality_name": "manage_staff"
+    },
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 8,
+        "functionality_name": "manage_inventory"
+    },
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 17,
+        "functionality_name": "manage_table"
+    },
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 13,
+        "functionality_name": "manage_chef"
+    },
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 15,
+        "functionality_name": "manage_owner"
+    },
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 12,
+        "functionality_name": "manage_manager"
+    },
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 11,
+        "functionality_name": "manage_captain"
+    },
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 10,
+        "functionality_name": "manage_waiter"
+    },
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 19,
+        "functionality_name": "menu_management"
+    },
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 20,
+        "functionality_name": "manage_statistics"
+    },
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 21,
+        "functionality_name": "manage_reports"
+    },
+    {
+        "role_name": "owner",
+        "role_id": 1,
+        "functionality_id": 2,
+        "functionality_name": "manage_menu_category"
+    },
+    {
+        "role_name": "captain",
+        "role_id": 2,
+        "functionality_id": 2,
+        "functionality_name": "manage_menu_category"
+    },
+    {
+        "role_name": "captain",
+        "role_id": 2,
+        "functionality_id": 2,
+        "functionality_name": "manage_menu_category"
+    },
+    {
+        "role_name": "captain",
+        "role_id": 2,
+        "functionality_id": 3,
+        "functionality_name": "manage_section"
+    },
+    {
+        "role_name": "captain",
+        "role_id": 2,
+        "functionality_id": 4,
+        "functionality_name": "manage_table"
+    },
+    {
+        "role_name": "captain",
+        "role_id": 2,
+        "functionality_id": 1,
+        "functionality_name": "manage_menu"
+    },
+    {
+        "role_name": "captain",
+        "role_id": 2,
+        "functionality_id": 1,
+        "functionality_name": "manage_menu"
+    },
+    {
+        "role_name": "captain",
+        "role_id": 2,
+        "functionality_id": 1,
+        "functionality_name": "manage_menu"
+    },
+    {
+        "role_name": "captain",
+        "role_id": 2,
+        "functionality_id": 2,
+        "functionality_name": "manage_menu_category"
+    },
+    {
+        "role_name": "captain",
+        "role_id": 2,
+        "functionality_id": 3,
+        "functionality_name": "manage_section"
+    },
+    {
+        "role_name": "waiter",
+        "role_id": 4,
+        "functionality_id": 3,
+        "functionality_name": "manage_section"
+    },
+    {
+        "role_name": "waiter",
+        "role_id": 4,
+        "functionality_id": 2,
+        "functionality_name": "manage_menu_category"
+    },
+    {
+        "role_name": "waiter",
+        "role_id": 4,
+        "functionality_id": 1,
+        "functionality_name": "manage_menu"
+    },
+    {
+        "role_name": "chef",
+        "role_id": 6,
+        "functionality_id": 1,
+        "functionality_name": "manage_menu"
+    },
+    {
+        "role_name": "chef",
+        "role_id": 6,
+        "functionality_id": 2,
+        "functionality_name": "manage_menu_category"
+    },
+    {
+        "role_name": "chef",
+        "role_id": 6,
+        "functionality_id": 3,
+        "functionality_name": "manage_section"
+    },
+    {
+        "role_name": "chef",
+        "role_id": 6,
+        "functionality_id": 4,
+        "functionality_name": "manage_table"
+    }
+]</t>
   </si>
 </sst>
 </file>
@@ -8582,15 +8807,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.85546875" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
@@ -10976,10 +11201,25 @@
         <v>200</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C129" s="14"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
+    <row r="129" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F129">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11101,9 +11341,10 @@
     <hyperlink ref="C126" r:id="rId116"/>
     <hyperlink ref="C127" r:id="rId117"/>
     <hyperlink ref="C128" r:id="rId118"/>
+    <hyperlink ref="C129" r:id="rId119"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId119"/>
+  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId120"/>
 </worksheet>
 </file>
 
@@ -11177,8 +11418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B316" sqref="B316"/>
+    <sheetView topLeftCell="E315" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G317" sqref="G317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19223,13 +19464,31 @@
         <v>200</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A317" s="1"/>
-      <c r="C317" s="1"/>
-      <c r="D317" s="1"/>
-      <c r="E317" s="1"/>
-      <c r="F317" s="10"/>
-      <c r="G317" s="10"/>
+    <row r="317" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F317" s="10" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G317" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H317">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="commonAPI" sheetId="1" r:id="rId1"/>
@@ -8130,229 +8130,31 @@
     <t>ubacview</t>
   </si>
   <si>
-    <t>{
-    "role_name":"manager"
-}</t>
-  </si>
-  <si>
-    <t>Verfiy</t>
-  </si>
-  <si>
-    <t>https://men4u.xyz/v2/admin/get_ubac_role_functionality_mappings</t>
-  </si>
-  <si>
-    <t>ubacgetlist</t>
-  </si>
-  <si>
-    <t>ubacgetlist_001</t>
-  </si>
-  <si>
     <t>[
     {
         "role_name": "owner",
         "role_id": 1,
         "functionality_id": 4,
         "functionality_name": "manage_table"
-    },
-    {
-        "role_name": "owner",
-        "role_id": 1,
-        "functionality_id": 1,
-        "functionality_name": "manage_menu"
-    },
-    {
-        "role_name": "owner",
-        "role_id": 1,
-        "functionality_id": 2,
-        "functionality_name": "manage_menu_category"
-    },
-    {
-        "role_name": "owner",
-        "role_id": 1,
-        "functionality_id": 3,
-        "functionality_name": "manage_section"
-    },
-    {
-        "role_name": "owner",
-        "role_id": 1,
-        "functionality_id": 14,
-        "functionality_name": "manage_partner"
-    },
-    {
-        "role_name": "owner",
-        "role_id": 1,
-        "functionality_id": 9,
-        "functionality_name": "manage_supplier"
-    },
-    {
-        "role_name": "owner",
-        "role_id": 1,
-        "functionality_id": 7,
-        "functionality_name": "manage_staff"
-    },
-    {
-        "role_name": "owner",
-        "role_id": 1,
-        "functionality_id": 8,
-        "functionality_name": "manage_inventory"
-    },
-    {
-        "role_name": "owner",
-        "role_id": 1,
-        "functionality_id": 17,
-        "functionality_name": "manage_table"
-    },
-    {
-        "role_name": "owner",
-        "role_id": 1,
-        "functionality_id": 13,
-        "functionality_name": "manage_chef"
-    },
-    {
-        "role_name": "owner",
-        "role_id": 1,
-        "functionality_id": 15,
-        "functionality_name": "manage_owner"
-    },
-    {
-        "role_name": "owner",
-        "role_id": 1,
-        "functionality_id": 12,
-        "functionality_name": "manage_manager"
-    },
-    {
-        "role_name": "owner",
-        "role_id": 1,
-        "functionality_id": 11,
-        "functionality_name": "manage_captain"
-    },
-    {
-        "role_name": "owner",
-        "role_id": 1,
-        "functionality_id": 10,
-        "functionality_name": "manage_waiter"
-    },
-    {
-        "role_name": "owner",
-        "role_id": 1,
-        "functionality_id": 19,
-        "functionality_name": "menu_management"
-    },
-    {
-        "role_name": "owner",
-        "role_id": 1,
-        "functionality_id": 20,
-        "functionality_name": "manage_statistics"
-    },
-    {
-        "role_name": "owner",
-        "role_id": 1,
-        "functionality_id": 21,
-        "functionality_name": "manage_reports"
-    },
-    {
-        "role_name": "owner",
-        "role_id": 1,
-        "functionality_id": 2,
-        "functionality_name": "manage_menu_category"
-    },
-    {
-        "role_name": "captain",
-        "role_id": 2,
-        "functionality_id": 2,
-        "functionality_name": "manage_menu_category"
-    },
-    {
-        "role_name": "captain",
-        "role_id": 2,
-        "functionality_id": 2,
-        "functionality_name": "manage_menu_category"
-    },
-    {
-        "role_name": "captain",
-        "role_id": 2,
-        "functionality_id": 3,
-        "functionality_name": "manage_section"
-    },
-    {
-        "role_name": "captain",
-        "role_id": 2,
-        "functionality_id": 4,
-        "functionality_name": "manage_table"
-    },
-    {
-        "role_name": "captain",
-        "role_id": 2,
-        "functionality_id": 1,
-        "functionality_name": "manage_menu"
-    },
-    {
-        "role_name": "captain",
-        "role_id": 2,
-        "functionality_id": 1,
-        "functionality_name": "manage_menu"
-    },
-    {
-        "role_name": "captain",
-        "role_id": 2,
-        "functionality_id": 1,
-        "functionality_name": "manage_menu"
-    },
-    {
-        "role_name": "captain",
-        "role_id": 2,
-        "functionality_id": 2,
-        "functionality_name": "manage_menu_category"
-    },
-    {
-        "role_name": "captain",
-        "role_id": 2,
-        "functionality_id": 3,
-        "functionality_name": "manage_section"
-    },
-    {
-        "role_name": "waiter",
-        "role_id": 4,
-        "functionality_id": 3,
-        "functionality_name": "manage_section"
-    },
-    {
-        "role_name": "waiter",
-        "role_id": 4,
-        "functionality_id": 2,
-        "functionality_name": "manage_menu_category"
-    },
-    {
-        "role_name": "waiter",
-        "role_id": 4,
-        "functionality_id": 1,
-        "functionality_name": "manage_menu"
-    },
-    {
-        "role_name": "chef",
-        "role_id": 6,
-        "functionality_id": 1,
-        "functionality_name": "manage_menu"
-    },
-    {
-        "role_name": "chef",
-        "role_id": 6,
-        "functionality_id": 2,
-        "functionality_name": "manage_menu_category"
-    },
-    {
-        "role_name": "chef",
-        "role_id": 6,
-        "functionality_id": 3,
-        "functionality_name": "manage_section"
-    },
-    {
-        "role_name": "chef",
-        "role_id": 6,
-        "functionality_id": 4,
-        "functionality_name": "manage_table"
     }
 ]</t>
+  </si>
+  <si>
+    <t>{
+    "role_name":"manager"
+}</t>
+  </si>
+  <si>
+    <t>Verfiy</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/admin/get_ubac_role_functionality_mappings</t>
+  </si>
+  <si>
+    <t>ubacgetlist</t>
+  </si>
+  <si>
+    <t>ubacgetlist_001</t>
   </si>
 </sst>
 </file>
@@ -8807,8 +8609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+    <sheetView topLeftCell="A129" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11201,21 +11003,21 @@
         <v>200</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="D129" s="10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E129" s="10" t="s">
         <v>1456</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>1461</v>
       </c>
       <c r="F129">
         <v>200</v>
@@ -11418,8 +11220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H317"/>
   <sheetViews>
-    <sheetView topLeftCell="E315" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G317" sqref="G317"/>
+    <sheetView tabSelected="1" topLeftCell="E316" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F317" sqref="F317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19464,27 +19266,27 @@
         <v>200</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B317" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F317" s="10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G317" s="10" t="s">
         <v>1456</v>
-      </c>
-      <c r="G317" s="10" t="s">
-        <v>1461</v>
       </c>
       <c r="H317">
         <v>200</v>

--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2778" uniqueCount="1462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="1467">
   <si>
     <t>post</t>
   </si>
@@ -8155,6 +8155,31 @@
   </si>
   <si>
     <t>ubacgetlist_001</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/common/create_udhari_ledger</t>
+  </si>
+  <si>
+    <t>{
+  "detail": "Udhari ledger entry created successfully"
+}</t>
+  </si>
+  <si>
+    <t>udhariledger</t>
+  </si>
+  <si>
+    <t>udhariledger_001</t>
+  </si>
+  <si>
+    <t>{
+    "user_id":2,
+    "customer_name": "Test",
+    "customer_mobile": "9876543211",
+    "customer_address": "123 Main Street, City",
+    "order_id": 342,
+    "bill_amount": 137.31,
+    "estimated_settlement_period": "1 week"
+}</t>
   </si>
 </sst>
 </file>
@@ -8607,10 +8632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView topLeftCell="A129" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11020,6 +11045,26 @@
         <v>1456</v>
       </c>
       <c r="F129">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="165" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E130" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F130" s="1">
         <v>200</v>
       </c>
     </row>
@@ -11144,9 +11189,10 @@
     <hyperlink ref="C127" r:id="rId117"/>
     <hyperlink ref="C128" r:id="rId118"/>
     <hyperlink ref="C129" r:id="rId119"/>
+    <hyperlink ref="C130" r:id="rId120"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId120"/>
+  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId121"/>
 </worksheet>
 </file>
 
@@ -11218,10 +11264,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H317"/>
+  <dimension ref="A1:H318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E316" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F317" sqref="F317"/>
+    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F318" sqref="F318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19289,6 +19335,32 @@
         <v>1456</v>
       </c>
       <c r="H317">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F318" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G318" s="10" t="s">
+        <v>1463</v>
+      </c>
+      <c r="H318">
         <v>200</v>
       </c>
     </row>

--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\new2\MenumitraAPi\src\test\resources\excelsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\new 4\MenuMitraApiAutomates\src\test\resources\excelsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="1467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2802" uniqueCount="1472">
   <si>
     <t>post</t>
   </si>
@@ -8173,10 +8173,31 @@
   <si>
     <t>{
     "user_id":2,
+    "ledger_id":2,
+   "settle_amount": 17.31
+}</t>
+  </si>
+  <si>
+    <t>{
+  "detail": "Udhari ledger updated successfully"
+}</t>
+  </si>
+  <si>
+    <t>udhariledgerupdate</t>
+  </si>
+  <si>
+    <t>udhariledgerupdate_001</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/common/update_udhari_ledger</t>
+  </si>
+  <si>
+    <t>{
+    "user_id":2,
     "customer_name": "Test",
     "customer_mobile": "9876543211",
     "customer_address": "123 Main Street, City",
-    "order_id": 342,
+    "order_id": 343,
     "bill_amount": 137.31,
     "estimated_settlement_period": "1 week"
 }</t>
@@ -8632,7 +8653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView topLeftCell="A129" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="D130" sqref="D130"/>
@@ -11059,12 +11080,32 @@
         <v>1462</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>1466</v>
+        <v>1471</v>
       </c>
       <c r="E130" s="10" t="s">
         <v>1463</v>
       </c>
       <c r="F130" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F131">
         <v>200</v>
       </c>
     </row>
@@ -11190,9 +11231,10 @@
     <hyperlink ref="C128" r:id="rId118"/>
     <hyperlink ref="C129" r:id="rId119"/>
     <hyperlink ref="C130" r:id="rId120"/>
+    <hyperlink ref="C131" r:id="rId121"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId121"/>
+  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId122"/>
 </worksheet>
 </file>
 
@@ -11264,7 +11306,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H318"/>
+  <dimension ref="A1:H319"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A315" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="F318" sqref="F318"/>
@@ -19355,12 +19397,38 @@
         <v>0</v>
       </c>
       <c r="F318" s="10" t="s">
-        <v>1466</v>
+        <v>1471</v>
       </c>
       <c r="G318" s="10" t="s">
         <v>1463</v>
       </c>
       <c r="H318">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F319" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G319" s="10" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H319">
         <v>200</v>
       </c>
     </row>

--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2802" uniqueCount="1472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="1477">
   <si>
     <t>post</t>
   </si>
@@ -8201,6 +8201,43 @@
     "bill_amount": 137.31,
     "estimated_settlement_period": "1 week"
 }</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/common/udhari_ledger_list</t>
+  </si>
+  <si>
+    <t>{
+    "ledger_id": "1",
+    "outlet_id" :"1"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "ledgers": [
+    {
+      "ledger_id": 56,
+      "customer_name": "Test",
+      "customer_mobile": "9876543211",
+      "customer_address": "123 Main Street, City",
+      "order_id": 343,
+      "order_number": "343",
+      "bill_amount": 137.31,
+      "udhari_datetime": "11-Jun-2025 09:55:21 AM",
+      "settle_amount": 0.0,
+      "settle_datetime": null,
+      "pending_amount": 137.31,
+      "ledger_status": "pending",
+      "estimated_settlement_period": "1 week",
+      "outlet_name": "Bhavani Hotelh"
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>udhariledgerlist</t>
+  </si>
+  <si>
+    <t>udhariledgerlist_001</t>
   </si>
 </sst>
 </file>
@@ -8653,10 +8690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView topLeftCell="A132" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11106,6 +11143,26 @@
         <v>1467</v>
       </c>
       <c r="F131">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="360" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F132" s="1">
         <v>200</v>
       </c>
     </row>
@@ -11232,9 +11289,10 @@
     <hyperlink ref="C129" r:id="rId119"/>
     <hyperlink ref="C130" r:id="rId120"/>
     <hyperlink ref="C131" r:id="rId121"/>
+    <hyperlink ref="C132" r:id="rId122"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId122"/>
+  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId123"/>
 </worksheet>
 </file>
 
@@ -11306,10 +11364,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H319"/>
+  <dimension ref="A1:H320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F318" sqref="F318"/>
+    <sheetView tabSelected="1" topLeftCell="A319" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A320" sqref="A320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19432,9 +19490,36 @@
         <v>200</v>
       </c>
     </row>
+    <row r="320" spans="1:8" ht="330" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F320" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G320" s="10" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H320" s="1">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="1483">
   <si>
     <t>post</t>
   </si>
@@ -8238,6 +8238,48 @@
   </si>
   <si>
     <t>udhariledgerlist_001</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/common/udhari_ledger_view</t>
+  </si>
+  <si>
+    <t>{
+  "ledger_id":1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "ledger_details": {
+    "ledger_id": 1,
+    "customer_name": "cfv",
+    "customer_mobile": "9898989898",
+    "customer_address": "fvjdj",
+    "order_id": 743,
+    "order_number": "743",
+    "bill_amount": 183.62,
+    "udhari_datetime": "26-May-2025 08:17:55 AM",
+    "settle_amount": 0.0,
+    "settle_datetime": null,
+    "pending_amount": 183.62,
+    "ledger_status": "pending",
+    "estimated_settlement_period": "1 week",
+    "outlet_name": "Bhavani Hotelh",
+    "outlet_id": 1,
+    "order_created_on": "24-May-2025 11:05:51 AM",
+    "order_status": "paid",
+    "order_type": "dine-in",
+    "final_grand_total": 183.62
+  }
+}</t>
+  </si>
+  <si>
+    <t>Verify That Ledger List View Using Empty Ledger ID</t>
+  </si>
+  <si>
+    <t>udhariledgerview</t>
+  </si>
+  <si>
+    <t>udhariledgerview_001</t>
   </si>
 </sst>
 </file>
@@ -8690,10 +8732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView topLeftCell="A133" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11163,6 +11205,26 @@
         <v>1474</v>
       </c>
       <c r="F132" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="405" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E133" s="10" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F133">
         <v>200</v>
       </c>
     </row>
@@ -11290,9 +11352,10 @@
     <hyperlink ref="C130" r:id="rId120"/>
     <hyperlink ref="C131" r:id="rId121"/>
     <hyperlink ref="C132" r:id="rId122"/>
+    <hyperlink ref="C133" r:id="rId123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId123"/>
+  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId124"/>
 </worksheet>
 </file>
 
@@ -11364,10 +11427,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H320"/>
+  <dimension ref="A1:H321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A320" sqref="A320"/>
+    <sheetView tabSelected="1" topLeftCell="C321" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G321" sqref="G321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19513,6 +19576,32 @@
         <v>1474</v>
       </c>
       <c r="H320" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="375" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F321" s="10" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G321" s="10" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H321">
         <v>200</v>
       </c>
     </row>

--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="commonAPI" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="1470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="1476">
   <si>
     <t>post</t>
   </si>
@@ -8223,6 +8223,39 @@
     }
   ]
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "user_id": 2,
+  "app_source": "captain_app",
+  "location": "Katraj",
+  "address": "Ground Floor, East Wing, Hotel Plaza, MG Road, Mumbai",
+  "manager_name": "Priya Sharma",
+  "manager_mobile": "9876543210",
+  "manager_alternate_mobile": "9123456780",
+  "warehouse_type": "Kitchen Supplies",
+  "capacity_unit": "kg",
+  "capacity_value": 2000,
+ "is_active":1
+}
+</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/common/create_warehouse</t>
+  </si>
+  <si>
+    <t>{
+  "detail": "Warehouse created successfully"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify </t>
+  </si>
+  <si>
+    <t>warehousecreate</t>
+  </si>
+  <si>
+    <t>warehousecreate_001</t>
   </si>
 </sst>
 </file>
@@ -8677,8 +8710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:F18"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11175,13 +11208,22 @@
         <v>200</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="255" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>1474</v>
+      </c>
       <c r="B134" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C134" s="14"/>
-      <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
+      <c r="C134" s="14" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D134" s="10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>1472</v>
+      </c>
       <c r="F134" s="1">
         <v>200</v>
       </c>
@@ -11312,9 +11354,10 @@
     <hyperlink ref="C132" r:id="rId122"/>
     <hyperlink ref="C133" r:id="rId123"/>
     <hyperlink ref="C28" r:id="rId124"/>
+    <hyperlink ref="C134" r:id="rId125"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId125"/>
+  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId126"/>
 </worksheet>
 </file>
 
@@ -11388,8 +11431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A319" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D319" sqref="D319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19486,17 +19529,29 @@
         <v>200</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>1473</v>
+      </c>
       <c r="E319" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F319" s="10" t="s">
-        <v>1457</v>
+        <v>1470</v>
       </c>
       <c r="G319" s="10" t="s">
-        <v>1458</v>
-      </c>
-      <c r="H319">
+        <v>1472</v>
+      </c>
+      <c r="H319" s="1">
         <v>200</v>
       </c>
     </row>

--- a/target/test-classes/excelsheet/apiEndpoint.xlsx
+++ b/target/test-classes/excelsheet/apiEndpoint.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2818" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="1481">
   <si>
     <t>post</t>
   </si>
@@ -8256,6 +8256,37 @@
   </si>
   <si>
     <t>warehousecreate_001</t>
+  </si>
+  <si>
+    <t>warehouseUpdate</t>
+  </si>
+  <si>
+    <t>https://men4u.xyz/v2/common/update_warehouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "user_id": 2,
+  "warehouse_id": 1,
+  "app_source": "captain_app",
+  "location": "Katraj",
+  "address": "Ground Floor, East Wing, Hotel Plaza, MG Road, Mumbai",
+  "manager_name": "Pooja Sharma",
+  "manager_mobile": "8876543210",
+  "manager_alternate_mobile": "9223456780",
+  "warehouse_type": "Kitchen Supplies",
+  "capacity_unit": "kg",
+  "capacity_value": 5000,
+  "is_active":1
+}
+</t>
+  </si>
+  <si>
+    <t>{
+  "detail": "Warehouse updated successfully"
+}</t>
+  </si>
+  <si>
+    <t>warehouseUpdate_001</t>
   </si>
 </sst>
 </file>
@@ -8708,10 +8739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11225,6 +11256,26 @@
         <v>1472</v>
       </c>
       <c r="F134" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="270" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E135" s="10" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F135">
         <v>200</v>
       </c>
     </row>
@@ -11355,9 +11406,10 @@
     <hyperlink ref="C133" r:id="rId123"/>
     <hyperlink ref="C28" r:id="rId124"/>
     <hyperlink ref="C134" r:id="rId125"/>
+    <hyperlink ref="C135" r:id="rId126"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId126"/>
+  <pageSetup paperSize="124" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId127"/>
 </worksheet>
 </file>
 
@@ -11429,10 +11481,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H319"/>
+  <dimension ref="A1:H320"/>
   <sheetViews>
-    <sheetView topLeftCell="A319" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D319" sqref="D319"/>
+    <sheetView topLeftCell="A320" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B320" sqref="B320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19552,6 +19604,32 @@
         <v>1472</v>
       </c>
       <c r="H319" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F320" s="10" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G320" s="10" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H320">
         <v>200</v>
       </c>
     </row>
